--- a/deploy/gabari.xlsx
+++ b/deploy/gabari.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6336E2-6FA3-4C19-B62F-D5FA47219B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="لرستان" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,9 +732,6 @@
           <cell r="Z58" t="str">
             <v>ارتفاع</v>
           </cell>
-          <cell r="AH58" t="str">
-            <v>عرض</v>
-          </cell>
         </row>
         <row r="59">
           <cell r="D59">
@@ -1037,14 +1033,8 @@
           <cell r="D61" t="str">
             <v>ارتفاع</v>
           </cell>
-          <cell r="K61" t="str">
-            <v>عرض</v>
-          </cell>
           <cell r="Z61" t="str">
             <v>ارتفاع</v>
-          </cell>
-          <cell r="AH61" t="str">
-            <v>عرض</v>
           </cell>
         </row>
         <row r="62">
@@ -1356,9 +1346,6 @@
         <row r="63">
           <cell r="Z63" t="str">
             <v>ارتفاع</v>
-          </cell>
-          <cell r="AH63" t="str">
-            <v>عرض</v>
           </cell>
         </row>
         <row r="64">
@@ -1728,23 +1715,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1780,23 +1750,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1972,21 +1925,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1997,20 +1950,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>MAX([1]لرستان!Z58:AG69,[1]لرستان!D58:J76)</f>
         <v>4700</v>
       </c>
       <c r="B2" s="1">
-        <f>MAX([1]لرستان!AH58:AN69,[1]لرستان!K58:Q75)</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2022,7 +1974,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2042,18 +1994,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>[1]لرستان!D58</f>
         <v>4700</v>
       </c>
       <c r="B5" s="1">
         <f>($B$2/2)-([1]لرستان!K58/2)</f>
-        <v>1138</v>
+        <v>1638</v>
       </c>
       <c r="C5" s="1">
         <f>($B$2/2)+([1]لرستان!K58/2)</f>
-        <v>2862</v>
+        <v>3362</v>
       </c>
       <c r="E5" s="1">
         <f>[1]لرستان!Z58</f>
@@ -2061,25 +2013,25 @@
       </c>
       <c r="F5" s="1">
         <f>($B$2/2)-([1]لرستان!AH58/2)</f>
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="1">
         <f>$B$2/2+[1]لرستان!AH58/2</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>[1]لرستان!D59</f>
         <v>4600</v>
       </c>
       <c r="B6" s="1">
         <f>($B$2/2)-([1]لرستان!K59/2)</f>
-        <v>1060</v>
+        <v>1560</v>
       </c>
       <c r="C6" s="1">
         <f>($B$2/2)+([1]لرستان!K59/2)</f>
-        <v>2940</v>
+        <v>3440</v>
       </c>
       <c r="E6" s="1">
         <f>[1]لرستان!Z59</f>
@@ -2087,25 +2039,25 @@
       </c>
       <c r="F6" s="1">
         <f>($B$2/2)-([1]لرستان!AH59/2)</f>
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G6" s="1">
         <f>$B$2/2+[1]لرستان!AH59/2</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>[1]لرستان!D60</f>
         <v>4500</v>
       </c>
       <c r="B7" s="1">
         <f>($B$2/2)-([1]لرستان!K60/2)</f>
-        <v>974</v>
+        <v>1474</v>
       </c>
       <c r="C7" s="1">
         <f>($B$2/2)+([1]لرستان!K60/2)</f>
-        <v>3026</v>
+        <v>3526</v>
       </c>
       <c r="E7" s="1">
         <f>[1]لرستان!Z60</f>
@@ -2113,25 +2065,25 @@
       </c>
       <c r="F7" s="1">
         <f>($B$2/2)-([1]لرستان!AH60/2)</f>
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="G7" s="1">
         <f>$B$2/2+[1]لرستان!AH60/2</f>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>[1]لرستان!D61</f>
         <v>4400</v>
       </c>
       <c r="B8" s="1">
         <f>($B$2/2)-([1]لرستان!K61/2)</f>
-        <v>892</v>
+        <v>1392</v>
       </c>
       <c r="C8" s="1">
         <f>($B$2/2)+([1]لرستان!K61/2)</f>
-        <v>3108</v>
+        <v>3608</v>
       </c>
       <c r="E8" s="1">
         <f>[1]لرستان!Z61</f>
@@ -2139,25 +2091,25 @@
       </c>
       <c r="F8" s="1">
         <f>($B$2/2)-([1]لرستان!AH61/2)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="1">
         <f>$B$2/2+[1]لرستان!AH61/2</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>[1]لرستان!D62</f>
         <v>4300</v>
       </c>
       <c r="B9" s="1">
         <f>($B$2/2)-([1]لرستان!K62/2)</f>
-        <v>810</v>
+        <v>1310</v>
       </c>
       <c r="C9" s="1">
         <f>($B$2/2)+([1]لرستان!K62/2)</f>
-        <v>3190</v>
+        <v>3690</v>
       </c>
       <c r="E9" s="1">
         <f>[1]لرستان!Z62</f>
@@ -2165,25 +2117,25 @@
       </c>
       <c r="F9" s="1">
         <f>($B$2/2)-([1]لرستان!AH62/2)</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="1">
         <f>$B$2/2+[1]لرستان!AH62/2</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>[1]لرستان!D63</f>
         <v>4200</v>
       </c>
       <c r="B10" s="1">
         <f>($B$2/2)-([1]لرستان!K63/2)</f>
-        <v>728</v>
+        <v>1228</v>
       </c>
       <c r="C10" s="1">
         <f>($B$2/2)+([1]لرستان!K63/2)</f>
-        <v>3272</v>
+        <v>3772</v>
       </c>
       <c r="E10" s="1">
         <f>[1]لرستان!Z63</f>
@@ -2191,25 +2143,25 @@
       </c>
       <c r="F10" s="1">
         <f>($B$2/2)-([1]لرستان!AH63/2)</f>
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="1">
         <f>$B$2/2+[1]لرستان!AH63/2</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>[1]لرستان!D64</f>
         <v>4100</v>
       </c>
       <c r="B11" s="1">
         <f>($B$2/2)-([1]لرستان!K64/2)</f>
-        <v>646</v>
+        <v>1146</v>
       </c>
       <c r="C11" s="1">
         <f>($B$2/2)+([1]لرستان!K64/2)</f>
-        <v>3354</v>
+        <v>3854</v>
       </c>
       <c r="E11" s="1">
         <f>[1]لرستان!Z64</f>
@@ -2217,25 +2169,25 @@
       </c>
       <c r="F11" s="1">
         <f>($B$2/2)-([1]لرستان!AH64/2)</f>
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="1">
         <f>$B$2/2+[1]لرستان!AH64/2</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>[1]لرستان!D65</f>
         <v>4000</v>
       </c>
       <c r="B12" s="1">
         <f>($B$2/2)-([1]لرستان!K65/2)</f>
-        <v>564</v>
+        <v>1064</v>
       </c>
       <c r="C12" s="1">
         <f>($B$2/2)+([1]لرستان!K65/2)</f>
-        <v>3436</v>
+        <v>3936</v>
       </c>
       <c r="E12" s="1">
         <f>[1]لرستان!Z65</f>
@@ -2243,25 +2195,25 @@
       </c>
       <c r="F12" s="1">
         <f>($B$2/2)-([1]لرستان!AH65/2)</f>
-        <v>645</v>
+        <v>1145</v>
       </c>
       <c r="G12" s="1">
         <f>$B$2/2+[1]لرستان!AH65/2</f>
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>[1]لرستان!D66</f>
         <v>3900</v>
       </c>
       <c r="B13" s="1">
         <f>($B$2/2)-([1]لرستان!K66/2)</f>
-        <v>482</v>
+        <v>982</v>
       </c>
       <c r="C13" s="1">
         <f>($B$2/2)+([1]لرستان!K66/2)</f>
-        <v>3518</v>
+        <v>4018</v>
       </c>
       <c r="E13" s="1">
         <f>[1]لرستان!Z66</f>
@@ -2269,25 +2221,25 @@
       </c>
       <c r="F13" s="1">
         <f>($B$2/2)-([1]لرستان!AH66/2)</f>
-        <v>590</v>
+        <v>1090</v>
       </c>
       <c r="G13" s="1">
         <f>$B$2/2+[1]لرستان!AH66/2</f>
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>[1]لرستان!D67</f>
         <v>3800</v>
       </c>
       <c r="B14" s="1">
         <f>($B$2/2)-([1]لرستان!K67/2)</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C14" s="1">
         <f>($B$2/2)+([1]لرستان!K67/2)</f>
-        <v>3600</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="1">
         <f>[1]لرستان!Z67</f>
@@ -2295,25 +2247,25 @@
       </c>
       <c r="F14" s="1">
         <f>($B$2/2)-([1]لرستان!AH67/2)</f>
-        <v>535</v>
+        <v>1035</v>
       </c>
       <c r="G14" s="1">
         <f>$B$2/2+[1]لرستان!AH67/2</f>
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>[1]لرستان!D68</f>
         <v>3700</v>
       </c>
       <c r="B15" s="1">
         <f>($B$2/2)-([1]لرستان!K68/2)</f>
-        <v>347</v>
+        <v>847</v>
       </c>
       <c r="C15" s="1">
         <f>($B$2/2)+([1]لرستان!K68/2)</f>
-        <v>3653</v>
+        <v>4153</v>
       </c>
       <c r="E15" s="1">
         <f>[1]لرستان!Z68</f>
@@ -2321,25 +2273,25 @@
       </c>
       <c r="F15" s="1">
         <f>($B$2/2)-([1]لرستان!AH68/2)</f>
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="G15" s="1">
         <f>$B$2/2+[1]لرستان!AH68/2</f>
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>[1]لرستان!D69</f>
         <v>3600</v>
       </c>
       <c r="B16" s="1">
         <f>($B$2/2)-([1]لرستان!K69/2)</f>
-        <v>294</v>
+        <v>794</v>
       </c>
       <c r="C16" s="1">
         <f>($B$2/2)+([1]لرستان!K69/2)</f>
-        <v>3706</v>
+        <v>4206</v>
       </c>
       <c r="E16" s="1">
         <f>[1]لرستان!Z69</f>
@@ -2347,25 +2299,25 @@
       </c>
       <c r="F16" s="1">
         <f>($B$2/2)-([1]لرستان!AH69/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G16" s="1">
         <f>$B$2/2+[1]لرستان!AH69/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>[1]لرستان!D70</f>
         <v>3500</v>
       </c>
       <c r="B17" s="1">
         <f>($B$2/2)-([1]لرستان!K70/2)</f>
-        <v>241</v>
+        <v>741</v>
       </c>
       <c r="C17" s="1">
         <f>($B$2/2)+([1]لرستان!K70/2)</f>
-        <v>3759</v>
+        <v>4259</v>
       </c>
       <c r="E17" s="1">
         <f>[1]لرستان!Z70</f>
@@ -2373,25 +2325,25 @@
       </c>
       <c r="F17" s="1">
         <f>($B$2/2)-([1]لرستان!AH70/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G17" s="1">
         <f>$B$2/2+[1]لرستان!AH70/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>[1]لرستان!D71</f>
         <v>3400</v>
       </c>
       <c r="B18" s="1">
         <f>($B$2/2)-([1]لرستان!K71/2)</f>
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="C18" s="1">
         <f>($B$2/2)+([1]لرستان!K71/2)</f>
-        <v>3812</v>
+        <v>4312</v>
       </c>
       <c r="E18" s="1">
         <f>[1]لرستان!Z71</f>
@@ -2399,25 +2351,25 @@
       </c>
       <c r="F18" s="1">
         <f>($B$2/2)-([1]لرستان!AH71/2)</f>
-        <v>505</v>
+        <v>1005</v>
       </c>
       <c r="G18" s="1">
         <f>$B$2/2+[1]لرستان!AH71/2</f>
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>[1]لرستان!D72</f>
         <v>3300</v>
       </c>
       <c r="B19" s="1">
         <f>($B$2/2)-([1]لرستان!K72/2)</f>
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="C19" s="1">
         <f>($B$2/2)+([1]لرستان!K72/2)</f>
-        <v>3865</v>
+        <v>4365</v>
       </c>
       <c r="E19" s="1">
         <f>[1]لرستان!Z72</f>
@@ -2425,148 +2377,151 @@
       </c>
       <c r="F19" s="1">
         <f>($B$2/2)-([1]لرستان!AH72/2)</f>
-        <v>780</v>
+        <v>1280</v>
       </c>
       <c r="G19" s="1">
         <f>$B$2/2+[1]لرستان!AH72/2</f>
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>[1]لرستان!D73</f>
         <v>3200</v>
       </c>
       <c r="B20" s="1">
         <f>($B$2/2)-([1]لرستان!K73/2)</f>
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="C20" s="1">
         <f>($B$2/2)+([1]لرستان!K73/2)</f>
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>[1]لرستان!D74</f>
         <v>3100</v>
       </c>
       <c r="B21" s="1">
         <f>($B$2/2)-([1]لرستان!K74/2)</f>
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="C21" s="1">
         <f>($B$2/2)+([1]لرستان!K74/2)</f>
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>[1]لرستان!D75</f>
         <v>3050</v>
       </c>
       <c r="B22" s="1">
         <f>($B$2/2)-([1]لرستان!K75/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C22" s="1">
         <f>($B$2/2)+([1]لرستان!K75/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>[1]لرستان!D76</f>
         <v>1120</v>
       </c>
       <c r="B23" s="1">
         <f>($B$2/2)-([1]لرستان!K76/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C23" s="1">
         <f>($B$2/2)+([1]لرستان!K76/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>[1]لرستان!D77</f>
         <v>1120</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <f>B23</f>
+        <v>500</v>
       </c>
       <c r="C24" s="1">
         <f>C23-300</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>[1]لرستان!D78</f>
         <v>760</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <f>B24</f>
+        <v>500</v>
       </c>
       <c r="C25" s="1">
         <f>C24</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>[1]لرستان!D79</f>
         <v>760</v>
       </c>
       <c r="B26" s="1">
-        <v>300</v>
+        <f>500+300</f>
+        <v>800</v>
       </c>
       <c r="C26" s="1">
         <f>C25</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>[1]لرستان!D80</f>
         <v>380</v>
       </c>
       <c r="B27" s="1">
         <f>B26</f>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="C27" s="1">
         <f>C26</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>[1]لرستان!D81</f>
         <v>380</v>
       </c>
       <c r="B28" s="1">
         <f>B27+100</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C28" s="1">
         <f>C27-100</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>[1]لرستان!D82</f>
         <v>0</v>
       </c>
       <c r="B29" s="1">
         <f>($B$2/2)-([1]لرستان!K82/2)</f>
-        <v>725</v>
+        <v>1225</v>
       </c>
       <c r="C29" s="1">
         <f>($B$2/2)+([1]لرستان!K82/2)</f>
-        <v>3275</v>
+        <v>3775</v>
       </c>
     </row>
   </sheetData>
@@ -2580,21 +2535,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2605,20 +2560,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>MAX([2]شمال!Z58:AG69,[2]شمال!D58:J76)</f>
         <v>4600</v>
       </c>
       <c r="B2" s="2">
-        <f>MAX([2]شمال!AH58:AN69,[2]شمال!K58:Q75)</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2584,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2650,18 +2604,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>[2]شمال!D58</f>
         <v>4600</v>
       </c>
       <c r="B5" s="2">
         <f>($B$2/2)-([2]شمال!K58/2)</f>
-        <v>1056</v>
+        <v>1556</v>
       </c>
       <c r="C5" s="2">
         <f>($B$2/2)+([2]شمال!K58/2)</f>
-        <v>2944</v>
+        <v>3444</v>
       </c>
       <c r="E5" s="2">
         <f>[2]شمال!Z58</f>
@@ -2669,25 +2623,25 @@
       </c>
       <c r="F5" s="2">
         <f>($B$2/2)-([2]شمال!AH58/2)</f>
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="2">
         <f>$B$2/2+[2]شمال!AH58/2</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>[2]شمال!D59</f>
         <v>4500</v>
       </c>
       <c r="B6" s="2">
         <f>($B$2/2)-([2]شمال!K59/2)</f>
-        <v>974</v>
+        <v>1474</v>
       </c>
       <c r="C6" s="2">
         <f>($B$2/2)+([2]شمال!K59/2)</f>
-        <v>3026</v>
+        <v>3526</v>
       </c>
       <c r="E6" s="2">
         <f>[2]شمال!Z59</f>
@@ -2695,25 +2649,25 @@
       </c>
       <c r="F6" s="2">
         <f>($B$2/2)-([2]شمال!AH59/2)</f>
-        <v>1250</v>
+        <v>1750</v>
       </c>
       <c r="G6" s="2">
         <f>$B$2/2+[2]شمال!AH59/2</f>
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>[2]شمال!D60</f>
         <v>4400</v>
       </c>
       <c r="B7" s="2">
         <f>($B$2/2)-([2]شمال!K60/2)</f>
-        <v>892</v>
+        <v>1392</v>
       </c>
       <c r="C7" s="2">
         <f>($B$2/2)+([2]شمال!K60/2)</f>
-        <v>3108</v>
+        <v>3608</v>
       </c>
       <c r="E7" s="2">
         <f>[2]شمال!Z60</f>
@@ -2721,25 +2675,25 @@
       </c>
       <c r="F7" s="2">
         <f>($B$2/2)-([2]شمال!AH60/2)</f>
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="G7" s="2">
         <f>$B$2/2+[2]شمال!AH60/2</f>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>[2]شمال!D61</f>
         <v>4300</v>
       </c>
       <c r="B8" s="2">
         <f>($B$2/2)-([2]شمال!K61/2)</f>
-        <v>810</v>
+        <v>1310</v>
       </c>
       <c r="C8" s="2">
         <f>($B$2/2)+([2]شمال!K61/2)</f>
-        <v>3190</v>
+        <v>3690</v>
       </c>
       <c r="E8" s="2">
         <f>[2]شمال!Z61</f>
@@ -2747,25 +2701,25 @@
       </c>
       <c r="F8" s="2">
         <f>($B$2/2)-([2]شمال!AH61/2)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="2">
         <f>$B$2/2+[2]شمال!AH61/2</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>[2]شمال!D62</f>
         <v>4200</v>
       </c>
       <c r="B9" s="2">
         <f>($B$2/2)-([2]شمال!K62/2)</f>
-        <v>728</v>
+        <v>1228</v>
       </c>
       <c r="C9" s="2">
         <f>($B$2/2)+([2]شمال!K62/2)</f>
-        <v>3272</v>
+        <v>3772</v>
       </c>
       <c r="E9" s="2">
         <f>[2]شمال!Z62</f>
@@ -2773,25 +2727,25 @@
       </c>
       <c r="F9" s="2">
         <f>($B$2/2)-([2]شمال!AH62/2)</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="2">
         <f>$B$2/2+[2]شمال!AH62/2</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>[2]شمال!D63</f>
         <v>4100</v>
       </c>
       <c r="B10" s="2">
         <f>($B$2/2)-([2]شمال!K63/2)</f>
-        <v>646</v>
+        <v>1146</v>
       </c>
       <c r="C10" s="2">
         <f>($B$2/2)+([2]شمال!K63/2)</f>
-        <v>3354</v>
+        <v>3854</v>
       </c>
       <c r="E10" s="2">
         <f>[2]شمال!Z63</f>
@@ -2799,25 +2753,25 @@
       </c>
       <c r="F10" s="2">
         <f>($B$2/2)-([2]شمال!AH63/2)</f>
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="2">
         <f>$B$2/2+[2]شمال!AH63/2</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>[2]شمال!D64</f>
         <v>4000</v>
       </c>
       <c r="B11" s="2">
         <f>($B$2/2)-([2]شمال!K64/2)</f>
-        <v>564</v>
+        <v>1064</v>
       </c>
       <c r="C11" s="2">
         <f>($B$2/2)+([2]شمال!K64/2)</f>
-        <v>3436</v>
+        <v>3936</v>
       </c>
       <c r="E11" s="2">
         <f>[2]شمال!Z64</f>
@@ -2825,25 +2779,25 @@
       </c>
       <c r="F11" s="2">
         <f>($B$2/2)-([2]شمال!AH64/2)</f>
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="2">
         <f>$B$2/2+[2]شمال!AH64/2</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>[2]شمال!D65</f>
         <v>3900</v>
       </c>
       <c r="B12" s="2">
         <f>($B$2/2)-([2]شمال!K65/2)</f>
-        <v>482</v>
+        <v>982</v>
       </c>
       <c r="C12" s="2">
         <f>($B$2/2)+([2]شمال!K65/2)</f>
-        <v>3518</v>
+        <v>4018</v>
       </c>
       <c r="E12" s="2">
         <f>[2]شمال!Z65</f>
@@ -2851,25 +2805,25 @@
       </c>
       <c r="F12" s="2">
         <f>($B$2/2)-([2]شمال!AH65/2)</f>
-        <v>645</v>
+        <v>1145</v>
       </c>
       <c r="G12" s="2">
         <f>$B$2/2+[2]شمال!AH65/2</f>
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>[2]شمال!D66</f>
         <v>3800</v>
       </c>
       <c r="B13" s="2">
         <f>($B$2/2)-([2]شمال!K66/2)</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C13" s="2">
         <f>($B$2/2)+([2]شمال!K66/2)</f>
-        <v>3600</v>
+        <v>4100</v>
       </c>
       <c r="E13" s="2">
         <f>[2]شمال!Z66</f>
@@ -2877,25 +2831,25 @@
       </c>
       <c r="F13" s="2">
         <f>($B$2/2)-([2]شمال!AH66/2)</f>
-        <v>590</v>
+        <v>1090</v>
       </c>
       <c r="G13" s="2">
         <f>$B$2/2+[2]شمال!AH66/2</f>
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>[2]شمال!D67</f>
         <v>3700</v>
       </c>
       <c r="B14" s="2">
         <f>($B$2/2)-([2]شمال!K67/2)</f>
-        <v>347</v>
+        <v>847</v>
       </c>
       <c r="C14" s="2">
         <f>($B$2/2)+([2]شمال!K67/2)</f>
-        <v>3653</v>
+        <v>4153</v>
       </c>
       <c r="E14" s="2">
         <f>[2]شمال!Z67</f>
@@ -2903,25 +2857,25 @@
       </c>
       <c r="F14" s="2">
         <f>($B$2/2)-([2]شمال!AH67/2)</f>
-        <v>535</v>
+        <v>1035</v>
       </c>
       <c r="G14" s="2">
         <f>$B$2/2+[2]شمال!AH67/2</f>
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>[2]شمال!D68</f>
         <v>3600</v>
       </c>
       <c r="B15" s="2">
         <f>($B$2/2)-([2]شمال!K68/2)</f>
-        <v>294</v>
+        <v>794</v>
       </c>
       <c r="C15" s="2">
         <f>($B$2/2)+([2]شمال!K68/2)</f>
-        <v>3706</v>
+        <v>4206</v>
       </c>
       <c r="E15" s="2">
         <f>[2]شمال!Z68</f>
@@ -2929,25 +2883,25 @@
       </c>
       <c r="F15" s="2">
         <f>($B$2/2)-([2]شمال!AH68/2)</f>
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="G15" s="2">
         <f>$B$2/2+[2]شمال!AH68/2</f>
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>[2]شمال!D69</f>
         <v>3500</v>
       </c>
       <c r="B16" s="2">
         <f>($B$2/2)-([2]شمال!K69/2)</f>
-        <v>241</v>
+        <v>741</v>
       </c>
       <c r="C16" s="2">
         <f>($B$2/2)+([2]شمال!K69/2)</f>
-        <v>3759</v>
+        <v>4259</v>
       </c>
       <c r="E16" s="2">
         <f>[2]شمال!Z69</f>
@@ -2955,25 +2909,25 @@
       </c>
       <c r="F16" s="2">
         <f>($B$2/2)-([2]شمال!AH69/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G16" s="2">
         <f>$B$2/2+[2]شمال!AH69/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[2]شمال!D70</f>
         <v>3400</v>
       </c>
       <c r="B17" s="2">
         <f>($B$2/2)-([2]شمال!K70/2)</f>
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="C17" s="2">
         <f>($B$2/2)+([2]شمال!K70/2)</f>
-        <v>3812</v>
+        <v>4312</v>
       </c>
       <c r="E17" s="2">
         <f>[2]شمال!Z70</f>
@@ -2981,25 +2935,25 @@
       </c>
       <c r="F17" s="2">
         <f>($B$2/2)-([2]شمال!AH70/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G17" s="2">
         <f>$B$2/2+[2]شمال!AH70/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[2]شمال!D71</f>
         <v>3300</v>
       </c>
       <c r="B18" s="2">
         <f>($B$2/2)-([2]شمال!K71/2)</f>
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="C18" s="2">
         <f>($B$2/2)+([2]شمال!K71/2)</f>
-        <v>3865</v>
+        <v>4365</v>
       </c>
       <c r="E18" s="2">
         <f>[2]شمال!Z71</f>
@@ -3007,25 +2961,25 @@
       </c>
       <c r="F18" s="2">
         <f>($B$2/2)-([2]شمال!AH71/2)</f>
-        <v>505</v>
+        <v>1005</v>
       </c>
       <c r="G18" s="2">
         <f>$B$2/2+[2]شمال!AH71/2</f>
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[2]شمال!D72</f>
         <v>3200</v>
       </c>
       <c r="B19" s="2">
         <f>($B$2/2)-([2]شمال!K72/2)</f>
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="C19" s="2">
         <f>($B$2/2)+([2]شمال!K72/2)</f>
-        <v>3918</v>
+        <v>4418</v>
       </c>
       <c r="E19" s="2">
         <f>[2]شمال!Z72</f>
@@ -3033,134 +2987,137 @@
       </c>
       <c r="F19" s="2">
         <f>($B$2/2)-([2]شمال!AH72/2)</f>
-        <v>780</v>
+        <v>1280</v>
       </c>
       <c r="G19" s="2">
         <f>$B$2/2+[2]شمال!AH72/2</f>
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[2]شمال!D73</f>
         <v>3100</v>
       </c>
       <c r="B20" s="2">
         <f>($B$2/2)-([2]شمال!K73/2)</f>
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="C20" s="2">
         <f>($B$2/2)+([2]شمال!K73/2)</f>
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[2]شمال!D74</f>
         <v>3050</v>
       </c>
       <c r="B21" s="2">
         <f>($B$2/2)-([2]شمال!K74/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C21" s="2">
         <f>($B$2/2)+([2]شمال!K74/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[2]شمال!D75</f>
         <v>1120</v>
       </c>
       <c r="B22" s="2">
         <f>($B$2/2)-([2]شمال!K75/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C22" s="2">
         <f>($B$2/2)+([2]شمال!K75/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[2]شمال!D76</f>
         <v>1120</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <f>B22</f>
+        <v>500</v>
       </c>
       <c r="C23" s="2">
         <f>C22-300</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[2]شمال!D77</f>
         <v>760</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <f>B23</f>
+        <v>500</v>
       </c>
       <c r="C24" s="2">
         <f>C23</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[2]شمال!D78</f>
         <v>760</v>
       </c>
       <c r="B25" s="2">
-        <v>300</v>
+        <f>B24+300</f>
+        <v>800</v>
       </c>
       <c r="C25" s="2">
         <f>C24</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>[2]شمال!D79</f>
         <v>380</v>
       </c>
       <c r="B26" s="2">
         <f>B25</f>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="C26" s="2">
         <f>C25</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[2]شمال!D80</f>
         <v>380</v>
       </c>
       <c r="B27" s="2">
         <f>B26+100</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C27" s="2">
         <f>C26-100</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>[2]شمال!D81</f>
         <v>0</v>
       </c>
       <c r="B28" s="2">
         <f>($B$2/2)-([2]شمال!K81/2)</f>
-        <v>725</v>
+        <v>1225</v>
       </c>
       <c r="C28" s="2">
         <f>($B$2/2)+([2]شمال!K81/2)</f>
-        <v>3275</v>
+        <v>3775</v>
       </c>
     </row>
   </sheetData>
@@ -3174,21 +3131,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3199,20 +3156,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>MAX([3]آذربايجان!Z58:AG69,[3]آذربايجان!D59:J90)</f>
         <v>4900</v>
       </c>
       <c r="B2" s="2">
-        <f>MAX([3]آذربايجان!AH58:AN69,[3]آذربايجان!K59:Q90)</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3224,7 +3180,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3244,18 +3200,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>[3]آذربايجان!D59</f>
         <v>4900</v>
       </c>
       <c r="B5" s="2">
         <f>($B$2/2)-([3]آذربايجان!K59/2)</f>
-        <v>1220</v>
+        <v>1720</v>
       </c>
       <c r="C5" s="2">
         <f>($B$2/2)+([3]آذربايجان!K59/2)</f>
-        <v>2780</v>
+        <v>3280</v>
       </c>
       <c r="E5" s="2">
         <f>[3]آذربايجان!Z59</f>
@@ -3263,25 +3219,25 @@
       </c>
       <c r="F5" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH59/2)</f>
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="2">
         <f>$B$2/2+[3]آذربايجان!AH59/2</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>[3]آذربايجان!D60</f>
         <v>4800</v>
       </c>
       <c r="B6" s="2">
         <f>($B$2/2)-([3]آذربايجان!K60/2)</f>
-        <v>1138</v>
+        <v>1638</v>
       </c>
       <c r="C6" s="2">
         <f>($B$2/2)+([3]آذربايجان!K60/2)</f>
-        <v>2862</v>
+        <v>3362</v>
       </c>
       <c r="E6" s="2">
         <f>[3]آذربايجان!Z60</f>
@@ -3289,25 +3245,25 @@
       </c>
       <c r="F6" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH60/2)</f>
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G6" s="2">
         <f>$B$2/2+[3]آذربايجان!AH60/2</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>[3]آذربايجان!D61</f>
         <v>4700</v>
       </c>
       <c r="B7" s="2">
         <f>($B$2/2)-([3]آذربايجان!K61/2)</f>
-        <v>1056</v>
+        <v>1556</v>
       </c>
       <c r="C7" s="2">
         <f>($B$2/2)+([3]آذربايجان!K61/2)</f>
-        <v>2944</v>
+        <v>3444</v>
       </c>
       <c r="E7" s="2">
         <f>[3]آذربايجان!Z61</f>
@@ -3315,25 +3271,25 @@
       </c>
       <c r="F7" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH61/2)</f>
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="G7" s="2">
         <f>$B$2/2+[3]آذربايجان!AH61/2</f>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>[3]آذربايجان!D62</f>
         <v>4600</v>
       </c>
       <c r="B8" s="2">
         <f>($B$2/2)-([3]آذربايجان!K62/2)</f>
-        <v>974</v>
+        <v>1474</v>
       </c>
       <c r="C8" s="2">
         <f>($B$2/2)+([3]آذربايجان!K62/2)</f>
-        <v>3026</v>
+        <v>3526</v>
       </c>
       <c r="E8" s="2">
         <f>[3]آذربايجان!Z62</f>
@@ -3341,25 +3297,25 @@
       </c>
       <c r="F8" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH62/2)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="2">
         <f>$B$2/2+[3]آذربايجان!AH62/2</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>[3]آذربايجان!D63</f>
         <v>4500</v>
       </c>
       <c r="B9" s="2">
         <f>($B$2/2)-([3]آذربايجان!K63/2)</f>
-        <v>892</v>
+        <v>1392</v>
       </c>
       <c r="C9" s="2">
         <f>($B$2/2)+([3]آذربايجان!K63/2)</f>
-        <v>3108</v>
+        <v>3608</v>
       </c>
       <c r="E9" s="2">
         <f>[3]آذربايجان!Z63</f>
@@ -3367,25 +3323,25 @@
       </c>
       <c r="F9" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH63/2)</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="2">
         <f>$B$2/2+[3]آذربايجان!AH63/2</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>[3]آذربايجان!D64</f>
         <v>4400</v>
       </c>
       <c r="B10" s="2">
         <f>($B$2/2)-([3]آذربايجان!K64/2)</f>
-        <v>810</v>
+        <v>1310</v>
       </c>
       <c r="C10" s="2">
         <f>($B$2/2)+([3]آذربايجان!K64/2)</f>
-        <v>3190</v>
+        <v>3690</v>
       </c>
       <c r="E10" s="2">
         <f>[3]آذربايجان!Z64</f>
@@ -3393,25 +3349,25 @@
       </c>
       <c r="F10" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH64/2)</f>
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="2">
         <f>$B$2/2+[3]آذربايجان!AH64/2</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>[3]آذربايجان!D65</f>
         <v>4300</v>
       </c>
       <c r="B11" s="2">
         <f>($B$2/2)-([3]آذربايجان!K65/2)</f>
-        <v>728</v>
+        <v>1228</v>
       </c>
       <c r="C11" s="2">
         <f>($B$2/2)+([3]آذربايجان!K65/2)</f>
-        <v>3272</v>
+        <v>3772</v>
       </c>
       <c r="E11" s="2">
         <f>[3]آذربايجان!Z65</f>
@@ -3419,25 +3375,25 @@
       </c>
       <c r="F11" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH65/2)</f>
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="2">
         <f>$B$2/2+[3]آذربايجان!AH65/2</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>[3]آذربايجان!D66</f>
         <v>4200</v>
       </c>
       <c r="B12" s="2">
         <f>($B$2/2)-([3]آذربايجان!K66/2)</f>
-        <v>646</v>
+        <v>1146</v>
       </c>
       <c r="C12" s="2">
         <f>($B$2/2)+([3]آذربايجان!K66/2)</f>
-        <v>3354</v>
+        <v>3854</v>
       </c>
       <c r="E12" s="2">
         <f>[3]آذربايجان!Z66</f>
@@ -3445,25 +3401,25 @@
       </c>
       <c r="F12" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH66/2)</f>
-        <v>645</v>
+        <v>1145</v>
       </c>
       <c r="G12" s="2">
         <f>$B$2/2+[3]آذربايجان!AH66/2</f>
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>[3]آذربايجان!D67</f>
         <v>4100</v>
       </c>
       <c r="B13" s="2">
         <f>($B$2/2)-([3]آذربايجان!K67/2)</f>
-        <v>564</v>
+        <v>1064</v>
       </c>
       <c r="C13" s="2">
         <f>($B$2/2)+([3]آذربايجان!K67/2)</f>
-        <v>3436</v>
+        <v>3936</v>
       </c>
       <c r="E13" s="2">
         <f>[3]آذربايجان!Z67</f>
@@ -3471,25 +3427,25 @@
       </c>
       <c r="F13" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH67/2)</f>
-        <v>590</v>
+        <v>1090</v>
       </c>
       <c r="G13" s="2">
         <f>$B$2/2+[3]آذربايجان!AH67/2</f>
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>[3]آذربايجان!D68</f>
         <v>4000</v>
       </c>
       <c r="B14" s="2">
         <f>($B$2/2)-([3]آذربايجان!K68/2)</f>
-        <v>482</v>
+        <v>982</v>
       </c>
       <c r="C14" s="2">
         <f>($B$2/2)+([3]آذربايجان!K68/2)</f>
-        <v>3518</v>
+        <v>4018</v>
       </c>
       <c r="E14" s="2">
         <f>[3]آذربايجان!Z68</f>
@@ -3497,25 +3453,25 @@
       </c>
       <c r="F14" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH68/2)</f>
-        <v>535</v>
+        <v>1035</v>
       </c>
       <c r="G14" s="2">
         <f>$B$2/2+[3]آذربايجان!AH68/2</f>
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>[3]آذربايجان!D69</f>
         <v>3900</v>
       </c>
       <c r="B15" s="2">
         <f>($B$2/2)-([3]آذربايجان!K69/2)</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C15" s="2">
         <f>($B$2/2)+([3]آذربايجان!K69/2)</f>
-        <v>3600</v>
+        <v>4100</v>
       </c>
       <c r="E15" s="2">
         <f>[3]آذربايجان!Z69</f>
@@ -3523,25 +3479,25 @@
       </c>
       <c r="F15" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH69/2)</f>
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="G15" s="2">
         <f>$B$2/2+[3]آذربايجان!AH69/2</f>
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>[3]آذربايجان!D70</f>
         <v>3800</v>
       </c>
       <c r="B16" s="2">
         <f>($B$2/2)-([3]آذربايجان!K70/2)</f>
-        <v>347</v>
+        <v>847</v>
       </c>
       <c r="C16" s="2">
         <f>($B$2/2)+([3]آذربايجان!K70/2)</f>
-        <v>3653</v>
+        <v>4153</v>
       </c>
       <c r="E16" s="2">
         <f>[3]آذربايجان!Z70</f>
@@ -3549,25 +3505,25 @@
       </c>
       <c r="F16" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH70/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G16" s="2">
         <f>$B$2/2+[3]آذربايجان!AH70/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[3]آذربايجان!D71</f>
         <v>3700</v>
       </c>
       <c r="B17" s="2">
         <f>($B$2/2)-([3]آذربايجان!K71/2)</f>
-        <v>294</v>
+        <v>794</v>
       </c>
       <c r="C17" s="2">
         <f>($B$2/2)+([3]آذربايجان!K71/2)</f>
-        <v>3706</v>
+        <v>4206</v>
       </c>
       <c r="E17" s="2">
         <f>[3]آذربايجان!Z71</f>
@@ -3575,25 +3531,25 @@
       </c>
       <c r="F17" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH71/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G17" s="2">
         <f>$B$2/2+[3]آذربايجان!AH71/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[3]آذربايجان!D72</f>
         <v>3600</v>
       </c>
       <c r="B18" s="2">
         <f>($B$2/2)-([3]آذربايجان!K72/2)</f>
-        <v>241</v>
+        <v>741</v>
       </c>
       <c r="C18" s="2">
         <f>($B$2/2)+([3]آذربايجان!K72/2)</f>
-        <v>3759</v>
+        <v>4259</v>
       </c>
       <c r="E18" s="2">
         <f>[3]آذربايجان!Z72</f>
@@ -3601,25 +3557,25 @@
       </c>
       <c r="F18" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH72/2)</f>
-        <v>505</v>
+        <v>1005</v>
       </c>
       <c r="G18" s="2">
         <f>$B$2/2+[3]آذربايجان!AH72/2</f>
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[3]آذربايجان!D73</f>
         <v>3500</v>
       </c>
       <c r="B19" s="2">
         <f>($B$2/2)-([3]آذربايجان!K73/2)</f>
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="C19" s="2">
         <f>($B$2/2)+([3]آذربايجان!K73/2)</f>
-        <v>3812</v>
+        <v>4312</v>
       </c>
       <c r="E19" s="2">
         <f>[3]آذربايجان!Z73</f>
@@ -3627,122 +3583,122 @@
       </c>
       <c r="F19" s="2">
         <f>($B$2/2)-([3]آذربايجان!AH73/2)</f>
-        <v>780</v>
+        <v>1280</v>
       </c>
       <c r="G19" s="2">
         <f>$B$2/2+[3]آذربايجان!AH73/2</f>
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[3]آذربايجان!D74</f>
         <v>3400</v>
       </c>
       <c r="B20" s="2">
         <f>($B$2/2)-([3]آذربايجان!K74/2)</f>
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="C20" s="2">
         <f>($B$2/2)+([3]آذربايجان!K74/2)</f>
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[3]آذربايجان!D75</f>
         <v>3300</v>
       </c>
       <c r="B21" s="2">
         <f>($B$2/2)-([3]آذربايجان!K75/2)</f>
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="C21" s="2">
         <f>($B$2/2)+([3]آذربايجان!K75/2)</f>
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[3]آذربايجان!D76</f>
         <v>3200</v>
       </c>
       <c r="B22" s="2">
         <f>($B$2/2)-([3]آذربايجان!K76/2)</f>
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="C22" s="2">
         <f>($B$2/2)+([3]آذربايجان!K76/2)</f>
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[3]آذربايجان!D77</f>
         <v>3150</v>
       </c>
       <c r="B23" s="2">
         <f>($B$2/2)-([3]آذربايجان!K77/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C23" s="2">
         <f>($B$2/2)+([3]آذربايجان!K77/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[3]آذربايجان!D78</f>
         <v>1200</v>
       </c>
       <c r="B24" s="2">
         <f>($B$2/2)-([3]آذربايجان!K78/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C24" s="2">
         <f>($B$2/2)+([3]آذربايجان!K78/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[3]آذربايجان!D79</f>
         <v>1200</v>
       </c>
       <c r="B25" s="2">
         <f>($B$2/2)-([3]آذربايجان!K79/2)</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C25" s="2">
         <f>($B$2/2)+([3]آذربايجان!K79/2)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>380</v>
       </c>
       <c r="B26" s="2">
         <f>($B$2/2)-([3]آذربايجان!K80/2)</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C26" s="2">
         <f>($B$2/2)+([3]آذربايجان!K80/2)</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[3]آذربايجان!D81</f>
         <v>0</v>
       </c>
       <c r="B27" s="2">
         <f>($B$2/2)-([3]آذربايجان!K81/2)</f>
-        <v>725</v>
+        <v>1225</v>
       </c>
       <c r="C27" s="2">
         <f>($B$2/2)+([3]آذربايجان!K81/2)</f>
-        <v>3275</v>
+        <v>3775</v>
       </c>
     </row>
   </sheetData>
@@ -3756,22 +3712,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3782,20 +3738,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>MAX('[4]سرخس - تهران'!Z58:AG69,'[4]سرخس - تهران'!D61:J90)</f>
         <v>5200</v>
       </c>
       <c r="B2" s="2">
-        <f>MAX('[4]سرخس - تهران'!AH58:AN69,'[4]سرخس - تهران'!K61:Q90)</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3807,7 +3762,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3827,18 +3782,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>'[4]سرخس - تهران'!D62</f>
         <v>5200</v>
       </c>
       <c r="B5" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K62/2)</f>
-        <v>1220</v>
+        <v>1720</v>
       </c>
       <c r="C5" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K62/2)</f>
-        <v>2780</v>
+        <v>3280</v>
       </c>
       <c r="E5" s="2">
         <f>'[4]سرخس - تهران'!Z62</f>
@@ -3846,25 +3801,25 @@
       </c>
       <c r="F5" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH62/2)</f>
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH62/2</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>'[4]سرخس - تهران'!D63</f>
         <v>5100</v>
       </c>
       <c r="B6" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K63/2)</f>
-        <v>1138</v>
+        <v>1638</v>
       </c>
       <c r="C6" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K63/2)</f>
-        <v>2862</v>
+        <v>3362</v>
       </c>
       <c r="E6" s="2">
         <f>'[4]سرخس - تهران'!Z63</f>
@@ -3872,25 +3827,25 @@
       </c>
       <c r="F6" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH63/2)</f>
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G6" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH63/2</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>'[4]سرخس - تهران'!D64</f>
         <v>5000</v>
       </c>
       <c r="B7" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K64/2)</f>
-        <v>1056</v>
+        <v>1556</v>
       </c>
       <c r="C7" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K64/2)</f>
-        <v>2944</v>
+        <v>3444</v>
       </c>
       <c r="E7" s="2">
         <f>'[4]سرخس - تهران'!Z64</f>
@@ -3898,25 +3853,25 @@
       </c>
       <c r="F7" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH64/2)</f>
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="G7" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH64/2</f>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>'[4]سرخس - تهران'!D65</f>
         <v>4900</v>
       </c>
       <c r="B8" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K65/2)</f>
-        <v>974</v>
+        <v>1474</v>
       </c>
       <c r="C8" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K65/2)</f>
-        <v>3026</v>
+        <v>3526</v>
       </c>
       <c r="E8" s="2">
         <f>'[4]سرخس - تهران'!Z65</f>
@@ -3924,25 +3879,25 @@
       </c>
       <c r="F8" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH65/2)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH65/2</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>'[4]سرخس - تهران'!D66</f>
         <v>4800</v>
       </c>
       <c r="B9" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K66/2)</f>
-        <v>892</v>
+        <v>1392</v>
       </c>
       <c r="C9" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K66/2)</f>
-        <v>3108</v>
+        <v>3608</v>
       </c>
       <c r="E9" s="2">
         <f>'[4]سرخس - تهران'!Z66</f>
@@ -3950,25 +3905,25 @@
       </c>
       <c r="F9" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH66/2)</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH66/2</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>'[4]سرخس - تهران'!D67</f>
         <v>4700</v>
       </c>
       <c r="B10" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K67/2)</f>
-        <v>810</v>
+        <v>1310</v>
       </c>
       <c r="C10" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K67/2)</f>
-        <v>3190</v>
+        <v>3690</v>
       </c>
       <c r="E10" s="2">
         <f>'[4]سرخس - تهران'!Z67</f>
@@ -3976,25 +3931,25 @@
       </c>
       <c r="F10" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH67/2)</f>
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH67/2</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>'[4]سرخس - تهران'!D68</f>
         <v>4600</v>
       </c>
       <c r="B11" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K68/2)</f>
-        <v>728</v>
+        <v>1228</v>
       </c>
       <c r="C11" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K68/2)</f>
-        <v>3272</v>
+        <v>3772</v>
       </c>
       <c r="E11" s="2">
         <f>'[4]سرخس - تهران'!Z68</f>
@@ -4002,25 +3957,25 @@
       </c>
       <c r="F11" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH68/2)</f>
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH68/2</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>'[4]سرخس - تهران'!D69</f>
         <v>4500</v>
       </c>
       <c r="B12" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K69/2)</f>
-        <v>646</v>
+        <v>1146</v>
       </c>
       <c r="C12" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K69/2)</f>
-        <v>3354</v>
+        <v>3854</v>
       </c>
       <c r="E12" s="2">
         <f>'[4]سرخس - تهران'!Z69</f>
@@ -4028,25 +3983,25 @@
       </c>
       <c r="F12" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH69/2)</f>
-        <v>645</v>
+        <v>1145</v>
       </c>
       <c r="G12" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH69/2</f>
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>'[4]سرخس - تهران'!D70</f>
         <v>4400</v>
       </c>
       <c r="B13" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K70/2)</f>
-        <v>564</v>
+        <v>1064</v>
       </c>
       <c r="C13" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K70/2)</f>
-        <v>3436</v>
+        <v>3936</v>
       </c>
       <c r="E13" s="2">
         <f>'[4]سرخس - تهران'!Z70</f>
@@ -4054,25 +4009,25 @@
       </c>
       <c r="F13" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH70/2)</f>
-        <v>590</v>
+        <v>1090</v>
       </c>
       <c r="G13" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH70/2</f>
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>'[4]سرخس - تهران'!D71</f>
         <v>4300</v>
       </c>
       <c r="B14" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K71/2)</f>
-        <v>482</v>
+        <v>982</v>
       </c>
       <c r="C14" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K71/2)</f>
-        <v>3518</v>
+        <v>4018</v>
       </c>
       <c r="E14" s="2">
         <f>'[4]سرخس - تهران'!Z71</f>
@@ -4080,25 +4035,25 @@
       </c>
       <c r="F14" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH71/2)</f>
-        <v>535</v>
+        <v>1035</v>
       </c>
       <c r="G14" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH71/2</f>
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>'[4]سرخس - تهران'!D72</f>
         <v>4200</v>
       </c>
       <c r="B15" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K72/2)</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C15" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K72/2)</f>
-        <v>3600</v>
+        <v>4100</v>
       </c>
       <c r="E15" s="2">
         <f>'[4]سرخس - تهران'!Z72</f>
@@ -4106,25 +4061,25 @@
       </c>
       <c r="F15" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH72/2)</f>
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="G15" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH72/2</f>
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>'[4]سرخس - تهران'!D73</f>
         <v>4100</v>
       </c>
       <c r="B16" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K73/2)</f>
-        <v>347</v>
+        <v>847</v>
       </c>
       <c r="C16" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K73/2)</f>
-        <v>3653</v>
+        <v>4153</v>
       </c>
       <c r="E16" s="2">
         <f>'[4]سرخس - تهران'!Z73</f>
@@ -4132,25 +4087,25 @@
       </c>
       <c r="F16" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH73/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G16" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH73/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>'[4]سرخس - تهران'!D74</f>
         <v>4000</v>
       </c>
       <c r="B17" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K74/2)</f>
-        <v>294</v>
+        <v>794</v>
       </c>
       <c r="C17" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K74/2)</f>
-        <v>3706</v>
+        <v>4206</v>
       </c>
       <c r="E17" s="2">
         <f>'[4]سرخس - تهران'!Z74</f>
@@ -4158,25 +4113,25 @@
       </c>
       <c r="F17" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH74/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G17" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH74/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>'[4]سرخس - تهران'!D75</f>
         <v>3900</v>
       </c>
       <c r="B18" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K75/2)</f>
-        <v>241</v>
+        <v>741</v>
       </c>
       <c r="C18" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K75/2)</f>
-        <v>3759</v>
+        <v>4259</v>
       </c>
       <c r="E18" s="2">
         <f>'[4]سرخس - تهران'!Z75</f>
@@ -4184,25 +4139,25 @@
       </c>
       <c r="F18" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH75/2)</f>
-        <v>505</v>
+        <v>1005</v>
       </c>
       <c r="G18" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH75/2</f>
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>'[4]سرخس - تهران'!D76</f>
         <v>3800</v>
       </c>
       <c r="B19" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K76/2)</f>
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="C19" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K76/2)</f>
-        <v>3812</v>
+        <v>4312</v>
       </c>
       <c r="E19" s="2">
         <f>'[4]سرخس - تهران'!Z76</f>
@@ -4210,162 +4165,165 @@
       </c>
       <c r="F19" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!AH76/2)</f>
-        <v>780</v>
+        <v>1280</v>
       </c>
       <c r="G19" s="2">
         <f>$B$2/2+'[4]سرخس - تهران'!AH76/2</f>
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>'[4]سرخس - تهران'!D77</f>
         <v>3700</v>
       </c>
       <c r="B20" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K77/2)</f>
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="C20" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K77/2)</f>
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>'[4]سرخس - تهران'!D78</f>
         <v>3600</v>
       </c>
       <c r="B21" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K78/2)</f>
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="C21" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K78/2)</f>
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>'[4]سرخس - تهران'!D79</f>
         <v>3500</v>
       </c>
       <c r="B22" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K79/2)</f>
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="C22" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K79/2)</f>
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>'[4]سرخس - تهران'!D80</f>
         <v>3450</v>
       </c>
       <c r="B23" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K80/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C23" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K80/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>'[4]سرخس - تهران'!D81</f>
         <v>1120</v>
       </c>
       <c r="B24" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K81/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C24" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K81/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>'[4]سرخس - تهران'!D82</f>
         <v>1120</v>
       </c>
       <c r="B25" s="2">
-        <v>0</v>
+        <f>B24</f>
+        <v>500</v>
       </c>
       <c r="C25" s="2">
         <f>C24-300</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>'[4]سرخس - تهران'!D83</f>
         <v>760</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <f>B25</f>
+        <v>500</v>
       </c>
       <c r="C26" s="2">
         <f>C25</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>'[4]سرخس - تهران'!D84</f>
         <v>760</v>
       </c>
       <c r="B27" s="2">
-        <v>300</v>
+        <f>500+300</f>
+        <v>800</v>
       </c>
       <c r="C27" s="2">
         <f>C26</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>'[4]سرخس - تهران'!D85</f>
         <v>380</v>
       </c>
       <c r="B28" s="2">
         <f>B27</f>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="C28" s="2">
         <f>C27</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>'[4]سرخس - تهران'!D86</f>
         <v>380</v>
       </c>
       <c r="B29" s="2">
         <f>B28+100</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C29" s="2">
         <f>C28-100</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>'[4]سرخس - تهران'!D87</f>
         <v>0</v>
       </c>
       <c r="B30" s="2">
         <f>($B$2/2)-('[4]سرخس - تهران'!K87/2)</f>
-        <v>725</v>
+        <v>1225</v>
       </c>
       <c r="C30" s="2">
         <f>($B$2/2)+('[4]سرخس - تهران'!K87/2)</f>
-        <v>3275</v>
+        <v>3775</v>
       </c>
     </row>
   </sheetData>
@@ -4379,22 +4337,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.109375" style="3"/>
+    <col min="4" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -4405,20 +4363,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>MAX('[5]بندر- شوراب'!Z58:AG69,'[5]بندر- شوراب'!D64:J89)</f>
         <v>5400</v>
       </c>
       <c r="B2" s="3">
-        <f>MAX('[5]بندر- شوراب'!AH58:AN69,'[5]بندر- شوراب'!K64:Q89)</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -4430,7 +4387,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4450,18 +4407,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>'[5]بندر- شوراب'!D64</f>
         <v>5400</v>
       </c>
       <c r="B5" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K64/2)</f>
-        <v>1220</v>
+        <v>1720</v>
       </c>
       <c r="C5" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K64/2)</f>
-        <v>2780</v>
+        <v>3280</v>
       </c>
       <c r="E5" s="3">
         <f>'[5]بندر- شوراب'!Z64</f>
@@ -4469,25 +4426,25 @@
       </c>
       <c r="F5" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH64/2)</f>
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G5" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH64/2</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>'[5]بندر- شوراب'!D65</f>
         <v>5300</v>
       </c>
       <c r="B6" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K65/2)</f>
-        <v>1138</v>
+        <v>1638</v>
       </c>
       <c r="C6" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K65/2)</f>
-        <v>2862</v>
+        <v>3362</v>
       </c>
       <c r="E6" s="3">
         <f>'[5]بندر- شوراب'!Z65</f>
@@ -4495,25 +4452,25 @@
       </c>
       <c r="F6" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH65/2)</f>
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G6" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH65/2</f>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>'[5]بندر- شوراب'!D66</f>
         <v>5200</v>
       </c>
       <c r="B7" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K66/2)</f>
-        <v>1056</v>
+        <v>1556</v>
       </c>
       <c r="C7" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K66/2)</f>
-        <v>2944</v>
+        <v>3444</v>
       </c>
       <c r="E7" s="3">
         <f>'[5]بندر- شوراب'!Z66</f>
@@ -4521,25 +4478,25 @@
       </c>
       <c r="F7" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH66/2)</f>
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="G7" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH66/2</f>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f>'[5]بندر- شوراب'!D67</f>
         <v>5100</v>
       </c>
       <c r="B8" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K67/2)</f>
-        <v>974</v>
+        <v>1474</v>
       </c>
       <c r="C8" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K67/2)</f>
-        <v>3026</v>
+        <v>3526</v>
       </c>
       <c r="E8" s="3">
         <f>'[5]بندر- شوراب'!Z67</f>
@@ -4547,25 +4504,25 @@
       </c>
       <c r="F8" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH67/2)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH67/2</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f>'[5]بندر- شوراب'!D68</f>
         <v>5000</v>
       </c>
       <c r="B9" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K68/2)</f>
-        <v>892</v>
+        <v>1392</v>
       </c>
       <c r="C9" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K68/2)</f>
-        <v>3108</v>
+        <v>3608</v>
       </c>
       <c r="E9" s="3">
         <f>'[5]بندر- شوراب'!Z68</f>
@@ -4573,25 +4530,25 @@
       </c>
       <c r="F9" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH68/2)</f>
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH68/2</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f>'[5]بندر- شوراب'!D69</f>
         <v>4900</v>
       </c>
       <c r="B10" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K69/2)</f>
-        <v>810</v>
+        <v>1310</v>
       </c>
       <c r="C10" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K69/2)</f>
-        <v>3190</v>
+        <v>3690</v>
       </c>
       <c r="E10" s="3">
         <f>'[5]بندر- شوراب'!Z69</f>
@@ -4599,25 +4556,25 @@
       </c>
       <c r="F10" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH69/2)</f>
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="G10" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH69/2</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>'[5]بندر- شوراب'!D70</f>
         <v>4800</v>
       </c>
       <c r="B11" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K70/2)</f>
-        <v>728</v>
+        <v>1228</v>
       </c>
       <c r="C11" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K70/2)</f>
-        <v>3272</v>
+        <v>3772</v>
       </c>
       <c r="E11" s="3">
         <f>'[5]بندر- شوراب'!Z70</f>
@@ -4625,25 +4582,25 @@
       </c>
       <c r="F11" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH70/2)</f>
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH70/2</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f>'[5]بندر- شوراب'!D71</f>
         <v>4700</v>
       </c>
       <c r="B12" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K71/2)</f>
-        <v>646</v>
+        <v>1146</v>
       </c>
       <c r="C12" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K71/2)</f>
-        <v>3354</v>
+        <v>3854</v>
       </c>
       <c r="E12" s="3">
         <f>'[5]بندر- شوراب'!Z71</f>
@@ -4651,25 +4608,25 @@
       </c>
       <c r="F12" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH71/2)</f>
-        <v>645</v>
+        <v>1145</v>
       </c>
       <c r="G12" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH71/2</f>
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f>'[5]بندر- شوراب'!D72</f>
         <v>4600</v>
       </c>
       <c r="B13" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K72/2)</f>
-        <v>564</v>
+        <v>1064</v>
       </c>
       <c r="C13" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K72/2)</f>
-        <v>3436</v>
+        <v>3936</v>
       </c>
       <c r="E13" s="3">
         <f>'[5]بندر- شوراب'!Z72</f>
@@ -4677,25 +4634,25 @@
       </c>
       <c r="F13" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH72/2)</f>
-        <v>590</v>
+        <v>1090</v>
       </c>
       <c r="G13" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH72/2</f>
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f>'[5]بندر- شوراب'!D73</f>
         <v>4500</v>
       </c>
       <c r="B14" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K73/2)</f>
-        <v>482</v>
+        <v>982</v>
       </c>
       <c r="C14" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K73/2)</f>
-        <v>3518</v>
+        <v>4018</v>
       </c>
       <c r="E14" s="3">
         <f>'[5]بندر- شوراب'!Z73</f>
@@ -4703,25 +4660,25 @@
       </c>
       <c r="F14" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH73/2)</f>
-        <v>535</v>
+        <v>1035</v>
       </c>
       <c r="G14" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH73/2</f>
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f>'[5]بندر- شوراب'!D74</f>
         <v>4400</v>
       </c>
       <c r="B15" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K74/2)</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C15" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K74/2)</f>
-        <v>3600</v>
+        <v>4100</v>
       </c>
       <c r="E15" s="3">
         <f>'[5]بندر- شوراب'!Z74</f>
@@ -4729,25 +4686,25 @@
       </c>
       <c r="F15" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH74/2)</f>
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="G15" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH74/2</f>
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f>'[5]بندر- شوراب'!D75</f>
         <v>4300</v>
       </c>
       <c r="B16" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K75/2)</f>
-        <v>347</v>
+        <v>847</v>
       </c>
       <c r="C16" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K75/2)</f>
-        <v>3653</v>
+        <v>4153</v>
       </c>
       <c r="E16" s="3">
         <f>'[5]بندر- شوراب'!Z75</f>
@@ -4755,25 +4712,25 @@
       </c>
       <c r="F16" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH75/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G16" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH75/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f>'[5]بندر- شوراب'!D76</f>
         <v>4200</v>
       </c>
       <c r="B17" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K76/2)</f>
-        <v>294</v>
+        <v>794</v>
       </c>
       <c r="C17" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K76/2)</f>
-        <v>3706</v>
+        <v>4206</v>
       </c>
       <c r="E17" s="3">
         <f>'[5]بندر- شوراب'!Z76</f>
@@ -4781,25 +4738,25 @@
       </c>
       <c r="F17" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH76/2)</f>
-        <v>425</v>
+        <v>925</v>
       </c>
       <c r="G17" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH76/2</f>
-        <v>3575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f>'[5]بندر- شوراب'!D77</f>
         <v>4100</v>
       </c>
       <c r="B18" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K77/2)</f>
-        <v>241</v>
+        <v>741</v>
       </c>
       <c r="C18" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K77/2)</f>
-        <v>3759</v>
+        <v>4259</v>
       </c>
       <c r="E18" s="3">
         <f>'[5]بندر- شوراب'!Z77</f>
@@ -4807,25 +4764,25 @@
       </c>
       <c r="F18" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH77/2)</f>
-        <v>505</v>
+        <v>1005</v>
       </c>
       <c r="G18" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH77/2</f>
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f>'[5]بندر- شوراب'!D78</f>
         <v>4000</v>
       </c>
       <c r="B19" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K78/2)</f>
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="C19" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K78/2)</f>
-        <v>3812</v>
+        <v>4312</v>
       </c>
       <c r="E19" s="3">
         <f>'[5]بندر- شوراب'!Z78</f>
@@ -4833,162 +4790,165 @@
       </c>
       <c r="F19" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!AH78/2)</f>
-        <v>780</v>
+        <v>1280</v>
       </c>
       <c r="G19" s="3">
         <f>$B$2/2+'[5]بندر- شوراب'!AH78/2</f>
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f>'[5]بندر- شوراب'!D79</f>
         <v>3900</v>
       </c>
       <c r="B20" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K79/2)</f>
-        <v>135</v>
+        <v>635</v>
       </c>
       <c r="C20" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K79/2)</f>
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f>'[5]بندر- شوراب'!D80</f>
         <v>3800</v>
       </c>
       <c r="B21" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K80/2)</f>
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="C21" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K80/2)</f>
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>'[5]بندر- شوراب'!D81</f>
         <v>3700</v>
       </c>
       <c r="B22" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K81/2)</f>
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="C22" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K81/2)</f>
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>'[5]بندر- شوراب'!D82</f>
         <v>3600</v>
       </c>
       <c r="B23" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K82/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C23" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K82/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f>'[5]بندر- شوراب'!D83</f>
         <v>1120</v>
       </c>
       <c r="B24" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K83/2)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C24" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K83/2)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f>'[5]بندر- شوراب'!D84</f>
         <v>1120</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <f>B24</f>
+        <v>500</v>
       </c>
       <c r="C25" s="3">
         <f>C24-300</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f>'[5]بندر- شوراب'!D85</f>
         <v>760</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <f>B25</f>
+        <v>500</v>
       </c>
       <c r="C26" s="3">
         <f>C25</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f>'[5]بندر- شوراب'!D86</f>
         <v>760</v>
       </c>
       <c r="B27" s="3">
-        <v>300</v>
+        <f>B26+300</f>
+        <v>800</v>
       </c>
       <c r="C27" s="3">
         <f>C26</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f>'[5]بندر- شوراب'!D87</f>
         <v>380</v>
       </c>
       <c r="B28" s="3">
         <f>B27</f>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="C28" s="3">
         <f>C27</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f>'[5]بندر- شوراب'!D88</f>
         <v>380</v>
       </c>
       <c r="B29" s="3">
         <f>B28+100</f>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C29" s="3">
         <f>C28-100</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f>'[5]بندر- شوراب'!D89</f>
         <v>0</v>
       </c>
       <c r="B30" s="3">
         <f>($B$2/2)-('[5]بندر- شوراب'!K89/2)</f>
-        <v>725</v>
+        <v>1225</v>
       </c>
       <c r="C30" s="3">
         <f>($B$2/2)+('[5]بندر- شوراب'!K89/2)</f>
-        <v>3275</v>
+        <v>3775</v>
       </c>
     </row>
   </sheetData>

--- a/deploy/gabari.xlsx
+++ b/deploy/gabari.xlsx
@@ -155,243 +155,141 @@
           <cell r="D58">
             <v>4700</v>
           </cell>
-          <cell r="K58">
-            <v>1724</v>
-          </cell>
           <cell r="Z58">
             <v>4400</v>
-          </cell>
-          <cell r="AH58">
-            <v>1400</v>
           </cell>
         </row>
         <row r="59">
           <cell r="D59">
             <v>4600</v>
           </cell>
-          <cell r="K59">
-            <v>1880</v>
-          </cell>
           <cell r="Z59">
             <v>4300</v>
-          </cell>
-          <cell r="AH59">
-            <v>1600</v>
           </cell>
         </row>
         <row r="60">
           <cell r="D60">
             <v>4500</v>
           </cell>
-          <cell r="K60">
-            <v>2052</v>
-          </cell>
           <cell r="Z60">
             <v>4200</v>
-          </cell>
-          <cell r="AH60">
-            <v>1800</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61">
             <v>4400</v>
           </cell>
-          <cell r="K61">
-            <v>2216</v>
-          </cell>
           <cell r="Z61">
             <v>4100</v>
-          </cell>
-          <cell r="AH61">
-            <v>2000</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62">
             <v>4300</v>
           </cell>
-          <cell r="K62">
-            <v>2380</v>
-          </cell>
           <cell r="Z62">
             <v>4000</v>
-          </cell>
-          <cell r="AH62">
-            <v>2200</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63">
             <v>4200</v>
           </cell>
-          <cell r="K63">
-            <v>2544</v>
-          </cell>
           <cell r="Z63">
             <v>3900</v>
-          </cell>
-          <cell r="AH63">
-            <v>2400</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64">
             <v>4100</v>
           </cell>
-          <cell r="K64">
-            <v>2708</v>
-          </cell>
           <cell r="Z64">
             <v>3800</v>
-          </cell>
-          <cell r="AH64">
-            <v>2600</v>
           </cell>
         </row>
         <row r="65">
           <cell r="D65">
             <v>4000</v>
           </cell>
-          <cell r="K65">
-            <v>2872</v>
-          </cell>
           <cell r="Z65">
             <v>3700</v>
-          </cell>
-          <cell r="AH65">
-            <v>2710</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66">
             <v>3900</v>
           </cell>
-          <cell r="K66">
-            <v>3036</v>
-          </cell>
           <cell r="Z66">
             <v>3600</v>
-          </cell>
-          <cell r="AH66">
-            <v>2820</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67">
             <v>3800</v>
           </cell>
-          <cell r="K67">
-            <v>3200</v>
-          </cell>
           <cell r="Z67">
             <v>3500</v>
-          </cell>
-          <cell r="AH67">
-            <v>2930</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68">
             <v>3700</v>
           </cell>
-          <cell r="K68">
-            <v>3306</v>
-          </cell>
           <cell r="Z68">
             <v>3400</v>
-          </cell>
-          <cell r="AH68">
-            <v>3040</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69">
             <v>3600</v>
           </cell>
-          <cell r="K69">
-            <v>3412</v>
-          </cell>
           <cell r="Z69">
             <v>3300</v>
-          </cell>
-          <cell r="AH69">
-            <v>3150</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70">
             <v>3500</v>
           </cell>
-          <cell r="K70">
-            <v>3518</v>
-          </cell>
           <cell r="Z70">
             <v>450</v>
-          </cell>
-          <cell r="AH70">
-            <v>3150</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71">
             <v>3400</v>
           </cell>
-          <cell r="K71">
-            <v>3624</v>
-          </cell>
           <cell r="Z71">
             <v>450</v>
-          </cell>
-          <cell r="AH71">
-            <v>2990</v>
           </cell>
         </row>
         <row r="72">
           <cell r="D72">
             <v>3300</v>
           </cell>
-          <cell r="K72">
-            <v>3730</v>
-          </cell>
           <cell r="Z72">
             <v>100</v>
-          </cell>
-          <cell r="AH72">
-            <v>2440</v>
           </cell>
         </row>
         <row r="73">
           <cell r="D73">
             <v>3200</v>
           </cell>
-          <cell r="K73">
-            <v>3836</v>
-          </cell>
         </row>
         <row r="74">
           <cell r="D74">
             <v>3100</v>
           </cell>
-          <cell r="K74">
-            <v>3942</v>
-          </cell>
         </row>
         <row r="75">
           <cell r="D75">
             <v>3050</v>
           </cell>
-          <cell r="K75">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="76">
           <cell r="D76">
             <v>1120</v>
           </cell>
-          <cell r="K76">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="77">
           <cell r="D77">
@@ -421,9 +319,6 @@
         <row r="82">
           <cell r="D82">
             <v>0</v>
-          </cell>
-          <cell r="K82">
-            <v>2550</v>
           </cell>
         </row>
       </sheetData>
@@ -448,235 +343,136 @@
           <cell r="D58">
             <v>4600</v>
           </cell>
-          <cell r="K58">
-            <v>1888</v>
-          </cell>
           <cell r="Z58">
             <v>4400</v>
-          </cell>
-          <cell r="AH58">
-            <v>1400</v>
           </cell>
         </row>
         <row r="59">
           <cell r="D59">
             <v>4500</v>
           </cell>
-          <cell r="K59">
-            <v>2052</v>
-          </cell>
           <cell r="Z59">
             <v>4300</v>
-          </cell>
-          <cell r="AH59">
-            <v>1500</v>
           </cell>
         </row>
         <row r="60">
           <cell r="D60">
             <v>4400</v>
           </cell>
-          <cell r="K60">
-            <v>2216</v>
-          </cell>
           <cell r="Z60">
             <v>4200</v>
-          </cell>
-          <cell r="AH60">
-            <v>1800</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61">
             <v>4300</v>
           </cell>
-          <cell r="K61">
-            <v>2380</v>
-          </cell>
           <cell r="Z61">
             <v>4100</v>
-          </cell>
-          <cell r="AH61">
-            <v>2000</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62">
             <v>4200</v>
           </cell>
-          <cell r="K62">
-            <v>2544</v>
-          </cell>
           <cell r="Z62">
             <v>4000</v>
-          </cell>
-          <cell r="AH62">
-            <v>2200</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63">
             <v>4100</v>
           </cell>
-          <cell r="K63">
-            <v>2708</v>
-          </cell>
           <cell r="Z63">
             <v>3900</v>
-          </cell>
-          <cell r="AH63">
-            <v>2400</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64">
             <v>4000</v>
           </cell>
-          <cell r="K64">
-            <v>2872</v>
-          </cell>
           <cell r="Z64">
             <v>3800</v>
-          </cell>
-          <cell r="AH64">
-            <v>2600</v>
           </cell>
         </row>
         <row r="65">
           <cell r="D65">
             <v>3900</v>
           </cell>
-          <cell r="K65">
-            <v>3036</v>
-          </cell>
           <cell r="Z65">
             <v>3700</v>
-          </cell>
-          <cell r="AH65">
-            <v>2710</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66">
             <v>3800</v>
           </cell>
-          <cell r="K66">
-            <v>3200</v>
-          </cell>
           <cell r="Z66">
             <v>3600</v>
-          </cell>
-          <cell r="AH66">
-            <v>2820</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67">
             <v>3700</v>
           </cell>
-          <cell r="K67">
-            <v>3306</v>
-          </cell>
           <cell r="Z67">
             <v>3500</v>
-          </cell>
-          <cell r="AH67">
-            <v>2930</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68">
             <v>3600</v>
           </cell>
-          <cell r="K68">
-            <v>3412</v>
-          </cell>
           <cell r="Z68">
             <v>3400</v>
-          </cell>
-          <cell r="AH68">
-            <v>3040</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69">
             <v>3500</v>
           </cell>
-          <cell r="K69">
-            <v>3518</v>
-          </cell>
           <cell r="Z69">
             <v>3300</v>
-          </cell>
-          <cell r="AH69">
-            <v>3150</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70">
             <v>3400</v>
           </cell>
-          <cell r="K70">
-            <v>3624</v>
-          </cell>
           <cell r="Z70">
             <v>450</v>
-          </cell>
-          <cell r="AH70">
-            <v>3150</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71">
             <v>3300</v>
           </cell>
-          <cell r="K71">
-            <v>3730</v>
-          </cell>
           <cell r="Z71">
             <v>450</v>
-          </cell>
-          <cell r="AH71">
-            <v>2990</v>
           </cell>
         </row>
         <row r="72">
           <cell r="D72">
             <v>3200</v>
           </cell>
-          <cell r="K72">
-            <v>3836</v>
-          </cell>
           <cell r="Z72">
             <v>100</v>
-          </cell>
-          <cell r="AH72">
-            <v>2440</v>
           </cell>
         </row>
         <row r="73">
           <cell r="D73">
             <v>3100</v>
           </cell>
-          <cell r="K73">
-            <v>3942</v>
-          </cell>
         </row>
         <row r="74">
           <cell r="D74">
             <v>3050</v>
           </cell>
-          <cell r="K74">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="75">
           <cell r="D75">
             <v>1120</v>
           </cell>
-          <cell r="K75">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="76">
           <cell r="D76">
@@ -706,9 +502,6 @@
         <row r="81">
           <cell r="D81">
             <v>0</v>
-          </cell>
-          <cell r="K81">
-            <v>2550</v>
           </cell>
         </row>
       </sheetData>
@@ -737,274 +530,160 @@
           <cell r="D59">
             <v>4900</v>
           </cell>
-          <cell r="K59">
-            <v>1560</v>
-          </cell>
           <cell r="Z59">
             <v>4500</v>
-          </cell>
-          <cell r="AH59">
-            <v>1400</v>
           </cell>
         </row>
         <row r="60">
           <cell r="D60">
             <v>4800</v>
           </cell>
-          <cell r="K60">
-            <v>1724</v>
-          </cell>
           <cell r="Z60">
             <v>4400</v>
-          </cell>
-          <cell r="AH60">
-            <v>1600</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61">
             <v>4700</v>
           </cell>
-          <cell r="K61">
-            <v>1888</v>
-          </cell>
           <cell r="Z61">
             <v>4300</v>
-          </cell>
-          <cell r="AH61">
-            <v>1800</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62">
             <v>4600</v>
           </cell>
-          <cell r="K62">
-            <v>2052</v>
-          </cell>
           <cell r="Z62">
             <v>4200</v>
-          </cell>
-          <cell r="AH62">
-            <v>2000</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63">
             <v>4500</v>
           </cell>
-          <cell r="K63">
-            <v>2216</v>
-          </cell>
           <cell r="Z63">
             <v>4100</v>
-          </cell>
-          <cell r="AH63">
-            <v>2200</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64">
             <v>4400</v>
           </cell>
-          <cell r="K64">
-            <v>2380</v>
-          </cell>
           <cell r="Z64">
             <v>4000</v>
-          </cell>
-          <cell r="AH64">
-            <v>2400</v>
           </cell>
         </row>
         <row r="65">
           <cell r="D65">
             <v>4300</v>
           </cell>
-          <cell r="K65">
-            <v>2544</v>
-          </cell>
           <cell r="Z65">
             <v>3900</v>
-          </cell>
-          <cell r="AH65">
-            <v>2600</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66">
             <v>4200</v>
           </cell>
-          <cell r="K66">
-            <v>2708</v>
-          </cell>
           <cell r="Z66">
             <v>3800</v>
-          </cell>
-          <cell r="AH66">
-            <v>2710</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67">
             <v>4100</v>
           </cell>
-          <cell r="K67">
-            <v>2872</v>
-          </cell>
           <cell r="Z67">
             <v>3700</v>
-          </cell>
-          <cell r="AH67">
-            <v>2820</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68">
             <v>4000</v>
           </cell>
-          <cell r="K68">
-            <v>3036</v>
-          </cell>
           <cell r="Z68">
             <v>3600</v>
-          </cell>
-          <cell r="AH68">
-            <v>2930</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69">
             <v>3900</v>
           </cell>
-          <cell r="K69">
-            <v>3200</v>
-          </cell>
           <cell r="Z69">
             <v>3500</v>
-          </cell>
-          <cell r="AH69">
-            <v>3040</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70">
             <v>3800</v>
           </cell>
-          <cell r="K70">
-            <v>3306</v>
-          </cell>
           <cell r="Z70">
             <v>3400</v>
-          </cell>
-          <cell r="AH70">
-            <v>3150</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71">
             <v>3700</v>
           </cell>
-          <cell r="K71">
-            <v>3412</v>
-          </cell>
           <cell r="Z71">
             <v>450</v>
-          </cell>
-          <cell r="AH71">
-            <v>3150</v>
           </cell>
         </row>
         <row r="72">
           <cell r="D72">
             <v>3600</v>
           </cell>
-          <cell r="K72">
-            <v>3518</v>
-          </cell>
           <cell r="Z72">
             <v>450</v>
-          </cell>
-          <cell r="AH72">
-            <v>2990</v>
           </cell>
         </row>
         <row r="73">
           <cell r="D73">
             <v>3500</v>
           </cell>
-          <cell r="K73">
-            <v>3624</v>
-          </cell>
           <cell r="Z73">
             <v>100</v>
-          </cell>
-          <cell r="AH73">
-            <v>2440</v>
           </cell>
         </row>
         <row r="74">
           <cell r="D74">
             <v>3400</v>
           </cell>
-          <cell r="K74">
-            <v>3730</v>
-          </cell>
         </row>
         <row r="75">
           <cell r="D75">
             <v>3300</v>
           </cell>
-          <cell r="K75">
-            <v>3836</v>
-          </cell>
         </row>
         <row r="76">
           <cell r="D76">
             <v>3200</v>
           </cell>
-          <cell r="K76">
-            <v>3942</v>
-          </cell>
         </row>
         <row r="77">
           <cell r="D77">
             <v>3150</v>
           </cell>
-          <cell r="K77">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="78">
           <cell r="D78">
             <v>1200</v>
           </cell>
-          <cell r="K78">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="79">
           <cell r="D79">
             <v>1200</v>
           </cell>
-          <cell r="K79">
-            <v>3200</v>
-          </cell>
         </row>
         <row r="80">
           <cell r="D80">
             <v>350</v>
           </cell>
-          <cell r="K80">
-            <v>3200</v>
-          </cell>
         </row>
         <row r="81">
           <cell r="D81">
             <v>0</v>
-          </cell>
-          <cell r="K81">
-            <v>2550</v>
           </cell>
         </row>
       </sheetData>
@@ -1041,251 +720,146 @@
           <cell r="D62">
             <v>5200</v>
           </cell>
-          <cell r="K62">
-            <v>1560</v>
-          </cell>
           <cell r="Z62">
             <v>4800</v>
-          </cell>
-          <cell r="AH62">
-            <v>1400</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63">
             <v>5100</v>
           </cell>
-          <cell r="K63">
-            <v>1724</v>
-          </cell>
           <cell r="Z63">
             <v>4700</v>
-          </cell>
-          <cell r="AH63">
-            <v>1600</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64">
             <v>5000</v>
           </cell>
-          <cell r="K64">
-            <v>1888</v>
-          </cell>
           <cell r="Z64">
             <v>4600</v>
-          </cell>
-          <cell r="AH64">
-            <v>1800</v>
           </cell>
         </row>
         <row r="65">
           <cell r="D65">
             <v>4900</v>
           </cell>
-          <cell r="K65">
-            <v>2052</v>
-          </cell>
           <cell r="Z65">
             <v>4500</v>
-          </cell>
-          <cell r="AH65">
-            <v>2000</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66">
             <v>4800</v>
           </cell>
-          <cell r="K66">
-            <v>2216</v>
-          </cell>
           <cell r="Z66">
             <v>4400</v>
-          </cell>
-          <cell r="AH66">
-            <v>2200</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67">
             <v>4700</v>
           </cell>
-          <cell r="K67">
-            <v>2380</v>
-          </cell>
           <cell r="Z67">
             <v>4300</v>
-          </cell>
-          <cell r="AH67">
-            <v>2400</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68">
             <v>4600</v>
           </cell>
-          <cell r="K68">
-            <v>2544</v>
-          </cell>
           <cell r="Z68">
             <v>4200</v>
-          </cell>
-          <cell r="AH68">
-            <v>2600</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69">
             <v>4500</v>
           </cell>
-          <cell r="K69">
-            <v>2708</v>
-          </cell>
           <cell r="Z69">
             <v>4100</v>
-          </cell>
-          <cell r="AH69">
-            <v>2710</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70">
             <v>4400</v>
           </cell>
-          <cell r="K70">
-            <v>2872</v>
-          </cell>
           <cell r="Z70">
             <v>4000</v>
-          </cell>
-          <cell r="AH70">
-            <v>2820</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71">
             <v>4300</v>
           </cell>
-          <cell r="K71">
-            <v>3036</v>
-          </cell>
           <cell r="Z71">
             <v>3900</v>
-          </cell>
-          <cell r="AH71">
-            <v>2930</v>
           </cell>
         </row>
         <row r="72">
           <cell r="D72">
             <v>4200</v>
           </cell>
-          <cell r="K72">
-            <v>3200</v>
-          </cell>
           <cell r="Z72">
             <v>3800</v>
-          </cell>
-          <cell r="AH72">
-            <v>3040</v>
           </cell>
         </row>
         <row r="73">
           <cell r="D73">
             <v>4100</v>
           </cell>
-          <cell r="K73">
-            <v>3306</v>
-          </cell>
           <cell r="Z73">
             <v>3700</v>
-          </cell>
-          <cell r="AH73">
-            <v>3150</v>
           </cell>
         </row>
         <row r="74">
           <cell r="D74">
             <v>4000</v>
           </cell>
-          <cell r="K74">
-            <v>3412</v>
-          </cell>
           <cell r="Z74">
             <v>450</v>
-          </cell>
-          <cell r="AH74">
-            <v>3150</v>
           </cell>
         </row>
         <row r="75">
           <cell r="D75">
             <v>3900</v>
           </cell>
-          <cell r="K75">
-            <v>3518</v>
-          </cell>
           <cell r="Z75">
             <v>450</v>
-          </cell>
-          <cell r="AH75">
-            <v>2990</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76">
             <v>3800</v>
           </cell>
-          <cell r="K76">
-            <v>3624</v>
-          </cell>
           <cell r="Z76">
             <v>100</v>
-          </cell>
-          <cell r="AH76">
-            <v>2440</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77">
             <v>3700</v>
           </cell>
-          <cell r="K77">
-            <v>3730</v>
-          </cell>
         </row>
         <row r="78">
           <cell r="D78">
             <v>3600</v>
           </cell>
-          <cell r="K78">
-            <v>3836</v>
-          </cell>
         </row>
         <row r="79">
           <cell r="D79">
             <v>3500</v>
           </cell>
-          <cell r="K79">
-            <v>3942</v>
-          </cell>
         </row>
         <row r="80">
           <cell r="D80">
             <v>3450</v>
           </cell>
-          <cell r="K80">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="81">
           <cell r="D81">
             <v>1120</v>
           </cell>
-          <cell r="K81">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="82">
           <cell r="D82">
@@ -1315,9 +889,6 @@
         <row r="87">
           <cell r="D87">
             <v>0</v>
-          </cell>
-          <cell r="K87">
-            <v>2550</v>
           </cell>
         </row>
       </sheetData>
@@ -1352,251 +923,146 @@
           <cell r="D64">
             <v>5400</v>
           </cell>
-          <cell r="K64">
-            <v>1560</v>
-          </cell>
           <cell r="Z64">
             <v>5000</v>
-          </cell>
-          <cell r="AH64">
-            <v>1400</v>
           </cell>
         </row>
         <row r="65">
           <cell r="D65">
             <v>5300</v>
           </cell>
-          <cell r="K65">
-            <v>1724</v>
-          </cell>
           <cell r="Z65">
             <v>4900</v>
-          </cell>
-          <cell r="AH65">
-            <v>1600</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66">
             <v>5200</v>
           </cell>
-          <cell r="K66">
-            <v>1888</v>
-          </cell>
           <cell r="Z66">
             <v>4800</v>
-          </cell>
-          <cell r="AH66">
-            <v>1800</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67">
             <v>5100</v>
           </cell>
-          <cell r="K67">
-            <v>2052</v>
-          </cell>
           <cell r="Z67">
             <v>4700</v>
-          </cell>
-          <cell r="AH67">
-            <v>2000</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68">
             <v>5000</v>
           </cell>
-          <cell r="K68">
-            <v>2216</v>
-          </cell>
           <cell r="Z68">
             <v>4600</v>
-          </cell>
-          <cell r="AH68">
-            <v>2200</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69">
             <v>4900</v>
           </cell>
-          <cell r="K69">
-            <v>2380</v>
-          </cell>
           <cell r="Z69">
             <v>4500</v>
-          </cell>
-          <cell r="AH69">
-            <v>2400</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70">
             <v>4800</v>
           </cell>
-          <cell r="K70">
-            <v>2544</v>
-          </cell>
           <cell r="Z70">
             <v>4400</v>
-          </cell>
-          <cell r="AH70">
-            <v>2600</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71">
             <v>4700</v>
           </cell>
-          <cell r="K71">
-            <v>2708</v>
-          </cell>
           <cell r="Z71">
             <v>4300</v>
-          </cell>
-          <cell r="AH71">
-            <v>2710</v>
           </cell>
         </row>
         <row r="72">
           <cell r="D72">
             <v>4600</v>
           </cell>
-          <cell r="K72">
-            <v>2872</v>
-          </cell>
           <cell r="Z72">
             <v>4200</v>
-          </cell>
-          <cell r="AH72">
-            <v>2820</v>
           </cell>
         </row>
         <row r="73">
           <cell r="D73">
             <v>4500</v>
           </cell>
-          <cell r="K73">
-            <v>3036</v>
-          </cell>
           <cell r="Z73">
             <v>4100</v>
-          </cell>
-          <cell r="AH73">
-            <v>2930</v>
           </cell>
         </row>
         <row r="74">
           <cell r="D74">
             <v>4400</v>
           </cell>
-          <cell r="K74">
-            <v>3200</v>
-          </cell>
           <cell r="Z74">
             <v>4000</v>
-          </cell>
-          <cell r="AH74">
-            <v>3040</v>
           </cell>
         </row>
         <row r="75">
           <cell r="D75">
             <v>4300</v>
           </cell>
-          <cell r="K75">
-            <v>3306</v>
-          </cell>
           <cell r="Z75">
             <v>3900</v>
-          </cell>
-          <cell r="AH75">
-            <v>3150</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76">
             <v>4200</v>
           </cell>
-          <cell r="K76">
-            <v>3412</v>
-          </cell>
           <cell r="Z76">
             <v>450</v>
-          </cell>
-          <cell r="AH76">
-            <v>3150</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77">
             <v>4100</v>
           </cell>
-          <cell r="K77">
-            <v>3518</v>
-          </cell>
           <cell r="Z77">
             <v>450</v>
-          </cell>
-          <cell r="AH77">
-            <v>2990</v>
           </cell>
         </row>
         <row r="78">
           <cell r="D78">
             <v>4000</v>
           </cell>
-          <cell r="K78">
-            <v>3624</v>
-          </cell>
           <cell r="Z78">
             <v>100</v>
-          </cell>
-          <cell r="AH78">
-            <v>2440</v>
           </cell>
         </row>
         <row r="79">
           <cell r="D79">
             <v>3900</v>
           </cell>
-          <cell r="K79">
-            <v>3730</v>
-          </cell>
         </row>
         <row r="80">
           <cell r="D80">
             <v>3800</v>
           </cell>
-          <cell r="K80">
-            <v>3836</v>
-          </cell>
         </row>
         <row r="81">
           <cell r="D81">
             <v>3700</v>
           </cell>
-          <cell r="K81">
-            <v>3942</v>
-          </cell>
         </row>
         <row r="82">
           <cell r="D82">
             <v>3600</v>
           </cell>
-          <cell r="K82">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="83">
           <cell r="D83">
             <v>1120</v>
           </cell>
-          <cell r="K83">
-            <v>4000</v>
-          </cell>
         </row>
         <row r="84">
           <cell r="D84">
@@ -1626,9 +1092,6 @@
         <row r="89">
           <cell r="D89">
             <v>0</v>
-          </cell>
-          <cell r="K89">
-            <v>2550</v>
           </cell>
         </row>
       </sheetData>
@@ -1929,7 +1392,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,24 +1463,20 @@
         <v>4700</v>
       </c>
       <c r="B5" s="1">
-        <f>($B$2/2)-([1]لرستان!K58/2)</f>
-        <v>1638</v>
+        <v>-862</v>
       </c>
       <c r="C5" s="1">
-        <f>($B$2/2)+([1]لرستان!K58/2)</f>
-        <v>3362</v>
+        <v>862</v>
       </c>
       <c r="E5" s="1">
         <f>[1]لرستان!Z58</f>
         <v>4400</v>
       </c>
       <c r="F5" s="1">
-        <f>($B$2/2)-([1]لرستان!AH58/2)</f>
-        <v>1800</v>
+        <v>-700</v>
       </c>
       <c r="G5" s="1">
-        <f>$B$2/2+[1]لرستان!AH58/2</f>
-        <v>3200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2026,24 +1485,20 @@
         <v>4600</v>
       </c>
       <c r="B6" s="1">
-        <f>($B$2/2)-([1]لرستان!K59/2)</f>
-        <v>1560</v>
+        <v>-940</v>
       </c>
       <c r="C6" s="1">
-        <f>($B$2/2)+([1]لرستان!K59/2)</f>
-        <v>3440</v>
+        <v>940</v>
       </c>
       <c r="E6" s="1">
         <f>[1]لرستان!Z59</f>
         <v>4300</v>
       </c>
       <c r="F6" s="1">
-        <f>($B$2/2)-([1]لرستان!AH59/2)</f>
-        <v>1700</v>
+        <v>-800</v>
       </c>
       <c r="G6" s="1">
-        <f>$B$2/2+[1]لرستان!AH59/2</f>
-        <v>3300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2052,24 +1507,20 @@
         <v>4500</v>
       </c>
       <c r="B7" s="1">
-        <f>($B$2/2)-([1]لرستان!K60/2)</f>
-        <v>1474</v>
+        <v>-1026</v>
       </c>
       <c r="C7" s="1">
-        <f>($B$2/2)+([1]لرستان!K60/2)</f>
-        <v>3526</v>
+        <v>1026</v>
       </c>
       <c r="E7" s="1">
         <f>[1]لرستان!Z60</f>
         <v>4200</v>
       </c>
       <c r="F7" s="1">
-        <f>($B$2/2)-([1]لرستان!AH60/2)</f>
-        <v>1600</v>
+        <v>-900</v>
       </c>
       <c r="G7" s="1">
-        <f>$B$2/2+[1]لرستان!AH60/2</f>
-        <v>3400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,24 +1529,20 @@
         <v>4400</v>
       </c>
       <c r="B8" s="1">
-        <f>($B$2/2)-([1]لرستان!K61/2)</f>
-        <v>1392</v>
+        <v>-1108</v>
       </c>
       <c r="C8" s="1">
-        <f>($B$2/2)+([1]لرستان!K61/2)</f>
-        <v>3608</v>
+        <v>1108</v>
       </c>
       <c r="E8" s="1">
         <f>[1]لرستان!Z61</f>
         <v>4100</v>
       </c>
       <c r="F8" s="1">
-        <f>($B$2/2)-([1]لرستان!AH61/2)</f>
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="G8" s="1">
-        <f>$B$2/2+[1]لرستان!AH61/2</f>
-        <v>3500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2104,24 +1551,20 @@
         <v>4300</v>
       </c>
       <c r="B9" s="1">
-        <f>($B$2/2)-([1]لرستان!K62/2)</f>
-        <v>1310</v>
+        <v>-1190</v>
       </c>
       <c r="C9" s="1">
-        <f>($B$2/2)+([1]لرستان!K62/2)</f>
-        <v>3690</v>
+        <v>1190</v>
       </c>
       <c r="E9" s="1">
         <f>[1]لرستان!Z62</f>
         <v>4000</v>
       </c>
       <c r="F9" s="1">
-        <f>($B$2/2)-([1]لرستان!AH62/2)</f>
-        <v>1400</v>
+        <v>-1100</v>
       </c>
       <c r="G9" s="1">
-        <f>$B$2/2+[1]لرستان!AH62/2</f>
-        <v>3600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2130,24 +1573,20 @@
         <v>4200</v>
       </c>
       <c r="B10" s="1">
-        <f>($B$2/2)-([1]لرستان!K63/2)</f>
-        <v>1228</v>
+        <v>-1272</v>
       </c>
       <c r="C10" s="1">
-        <f>($B$2/2)+([1]لرستان!K63/2)</f>
-        <v>3772</v>
+        <v>1272</v>
       </c>
       <c r="E10" s="1">
         <f>[1]لرستان!Z63</f>
         <v>3900</v>
       </c>
       <c r="F10" s="1">
-        <f>($B$2/2)-([1]لرستان!AH63/2)</f>
-        <v>1300</v>
+        <v>-1200</v>
       </c>
       <c r="G10" s="1">
-        <f>$B$2/2+[1]لرستان!AH63/2</f>
-        <v>3700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,24 +1595,20 @@
         <v>4100</v>
       </c>
       <c r="B11" s="1">
-        <f>($B$2/2)-([1]لرستان!K64/2)</f>
-        <v>1146</v>
+        <v>-1354</v>
       </c>
       <c r="C11" s="1">
-        <f>($B$2/2)+([1]لرستان!K64/2)</f>
-        <v>3854</v>
+        <v>1354</v>
       </c>
       <c r="E11" s="1">
         <f>[1]لرستان!Z64</f>
         <v>3800</v>
       </c>
       <c r="F11" s="1">
-        <f>($B$2/2)-([1]لرستان!AH64/2)</f>
-        <v>1200</v>
+        <v>-1300</v>
       </c>
       <c r="G11" s="1">
-        <f>$B$2/2+[1]لرستان!AH64/2</f>
-        <v>3800</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2182,24 +1617,20 @@
         <v>4000</v>
       </c>
       <c r="B12" s="1">
-        <f>($B$2/2)-([1]لرستان!K65/2)</f>
-        <v>1064</v>
+        <v>-1436</v>
       </c>
       <c r="C12" s="1">
-        <f>($B$2/2)+([1]لرستان!K65/2)</f>
-        <v>3936</v>
+        <v>1436</v>
       </c>
       <c r="E12" s="1">
         <f>[1]لرستان!Z65</f>
         <v>3700</v>
       </c>
       <c r="F12" s="1">
-        <f>($B$2/2)-([1]لرستان!AH65/2)</f>
-        <v>1145</v>
+        <v>-1355</v>
       </c>
       <c r="G12" s="1">
-        <f>$B$2/2+[1]لرستان!AH65/2</f>
-        <v>3855</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,24 +1639,20 @@
         <v>3900</v>
       </c>
       <c r="B13" s="1">
-        <f>($B$2/2)-([1]لرستان!K66/2)</f>
-        <v>982</v>
+        <v>-1518</v>
       </c>
       <c r="C13" s="1">
-        <f>($B$2/2)+([1]لرستان!K66/2)</f>
-        <v>4018</v>
+        <v>1518</v>
       </c>
       <c r="E13" s="1">
         <f>[1]لرستان!Z66</f>
         <v>3600</v>
       </c>
       <c r="F13" s="1">
-        <f>($B$2/2)-([1]لرستان!AH66/2)</f>
-        <v>1090</v>
+        <v>-1410</v>
       </c>
       <c r="G13" s="1">
-        <f>$B$2/2+[1]لرستان!AH66/2</f>
-        <v>3910</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2234,24 +1661,20 @@
         <v>3800</v>
       </c>
       <c r="B14" s="1">
-        <f>($B$2/2)-([1]لرستان!K67/2)</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C14" s="1">
-        <f>($B$2/2)+([1]لرستان!K67/2)</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="1">
         <f>[1]لرستان!Z67</f>
         <v>3500</v>
       </c>
       <c r="F14" s="1">
-        <f>($B$2/2)-([1]لرستان!AH67/2)</f>
-        <v>1035</v>
+        <v>-1465</v>
       </c>
       <c r="G14" s="1">
-        <f>$B$2/2+[1]لرستان!AH67/2</f>
-        <v>3965</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2260,24 +1683,20 @@
         <v>3700</v>
       </c>
       <c r="B15" s="1">
-        <f>($B$2/2)-([1]لرستان!K68/2)</f>
-        <v>847</v>
+        <v>-1653</v>
       </c>
       <c r="C15" s="1">
-        <f>($B$2/2)+([1]لرستان!K68/2)</f>
-        <v>4153</v>
+        <v>1653</v>
       </c>
       <c r="E15" s="1">
         <f>[1]لرستان!Z68</f>
         <v>3400</v>
       </c>
       <c r="F15" s="1">
-        <f>($B$2/2)-([1]لرستان!AH68/2)</f>
-        <v>980</v>
+        <v>-1520</v>
       </c>
       <c r="G15" s="1">
-        <f>$B$2/2+[1]لرستان!AH68/2</f>
-        <v>4020</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2286,24 +1705,20 @@
         <v>3600</v>
       </c>
       <c r="B16" s="1">
-        <f>($B$2/2)-([1]لرستان!K69/2)</f>
-        <v>794</v>
+        <v>-1706</v>
       </c>
       <c r="C16" s="1">
-        <f>($B$2/2)+([1]لرستان!K69/2)</f>
-        <v>4206</v>
+        <v>1706</v>
       </c>
       <c r="E16" s="1">
         <f>[1]لرستان!Z69</f>
         <v>3300</v>
       </c>
       <c r="F16" s="1">
-        <f>($B$2/2)-([1]لرستان!AH69/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G16" s="1">
-        <f>$B$2/2+[1]لرستان!AH69/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2312,24 +1727,20 @@
         <v>3500</v>
       </c>
       <c r="B17" s="1">
-        <f>($B$2/2)-([1]لرستان!K70/2)</f>
-        <v>741</v>
+        <v>-1759</v>
       </c>
       <c r="C17" s="1">
-        <f>($B$2/2)+([1]لرستان!K70/2)</f>
-        <v>4259</v>
+        <v>1759</v>
       </c>
       <c r="E17" s="1">
         <f>[1]لرستان!Z70</f>
         <v>450</v>
       </c>
       <c r="F17" s="1">
-        <f>($B$2/2)-([1]لرستان!AH70/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G17" s="1">
-        <f>$B$2/2+[1]لرستان!AH70/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2338,24 +1749,20 @@
         <v>3400</v>
       </c>
       <c r="B18" s="1">
-        <f>($B$2/2)-([1]لرستان!K71/2)</f>
-        <v>688</v>
+        <v>-1812</v>
       </c>
       <c r="C18" s="1">
-        <f>($B$2/2)+([1]لرستان!K71/2)</f>
-        <v>4312</v>
+        <v>1812</v>
       </c>
       <c r="E18" s="1">
         <f>[1]لرستان!Z71</f>
         <v>450</v>
       </c>
       <c r="F18" s="1">
-        <f>($B$2/2)-([1]لرستان!AH71/2)</f>
-        <v>1005</v>
+        <v>-1495</v>
       </c>
       <c r="G18" s="1">
-        <f>$B$2/2+[1]لرستان!AH71/2</f>
-        <v>3995</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2364,24 +1771,20 @@
         <v>3300</v>
       </c>
       <c r="B19" s="1">
-        <f>($B$2/2)-([1]لرستان!K72/2)</f>
-        <v>635</v>
+        <v>-1865</v>
       </c>
       <c r="C19" s="1">
-        <f>($B$2/2)+([1]لرستان!K72/2)</f>
-        <v>4365</v>
+        <v>1865</v>
       </c>
       <c r="E19" s="1">
         <f>[1]لرستان!Z72</f>
         <v>100</v>
       </c>
       <c r="F19" s="1">
-        <f>($B$2/2)-([1]لرستان!AH72/2)</f>
-        <v>1280</v>
+        <v>-1220</v>
       </c>
       <c r="G19" s="1">
-        <f>$B$2/2+[1]لرستان!AH72/2</f>
-        <v>3720</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2390,12 +1793,10 @@
         <v>3200</v>
       </c>
       <c r="B20" s="1">
-        <f>($B$2/2)-([1]لرستان!K73/2)</f>
-        <v>582</v>
+        <v>-1918</v>
       </c>
       <c r="C20" s="1">
-        <f>($B$2/2)+([1]لرستان!K73/2)</f>
-        <v>4418</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2404,12 +1805,10 @@
         <v>3100</v>
       </c>
       <c r="B21" s="1">
-        <f>($B$2/2)-([1]لرستان!K74/2)</f>
-        <v>529</v>
+        <v>-1971</v>
       </c>
       <c r="C21" s="1">
-        <f>($B$2/2)+([1]لرستان!K74/2)</f>
-        <v>4471</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2418,12 +1817,10 @@
         <v>3050</v>
       </c>
       <c r="B22" s="1">
-        <f>($B$2/2)-([1]لرستان!K75/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C22" s="1">
-        <f>($B$2/2)+([1]لرستان!K75/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,12 +1829,10 @@
         <v>1120</v>
       </c>
       <c r="B23" s="1">
-        <f>($B$2/2)-([1]لرستان!K76/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C23" s="1">
-        <f>($B$2/2)+([1]لرستان!K76/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2446,12 +1841,10 @@
         <v>1120</v>
       </c>
       <c r="B24" s="1">
-        <f>B23</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C24" s="1">
-        <f>C23-300</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2460,12 +1853,10 @@
         <v>760</v>
       </c>
       <c r="B25" s="1">
-        <f>B24</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C25" s="1">
-        <f>C24</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2474,12 +1865,10 @@
         <v>760</v>
       </c>
       <c r="B26" s="1">
-        <f>500+300</f>
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="C26" s="1">
-        <f>C25</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2488,12 +1877,10 @@
         <v>380</v>
       </c>
       <c r="B27" s="1">
-        <f>B26</f>
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="C27" s="1">
-        <f>C26</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2502,12 +1889,10 @@
         <v>380</v>
       </c>
       <c r="B28" s="1">
-        <f>B27+100</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C28" s="1">
-        <f>C27-100</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2516,12 +1901,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <f>($B$2/2)-([1]لرستان!K82/2)</f>
-        <v>1225</v>
+        <v>-1275</v>
       </c>
       <c r="C29" s="1">
-        <f>($B$2/2)+([1]لرستان!K82/2)</f>
-        <v>3775</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +1922,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,24 +1993,20 @@
         <v>4600</v>
       </c>
       <c r="B5" s="2">
-        <f>($B$2/2)-([2]شمال!K58/2)</f>
-        <v>1556</v>
+        <v>-944</v>
       </c>
       <c r="C5" s="2">
-        <f>($B$2/2)+([2]شمال!K58/2)</f>
-        <v>3444</v>
+        <v>944</v>
       </c>
       <c r="E5" s="2">
         <f>[2]شمال!Z58</f>
         <v>4400</v>
       </c>
       <c r="F5" s="2">
-        <f>($B$2/2)-([2]شمال!AH58/2)</f>
-        <v>1800</v>
+        <v>-700</v>
       </c>
       <c r="G5" s="2">
-        <f>$B$2/2+[2]شمال!AH58/2</f>
-        <v>3200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2636,24 +2015,20 @@
         <v>4500</v>
       </c>
       <c r="B6" s="2">
-        <f>($B$2/2)-([2]شمال!K59/2)</f>
-        <v>1474</v>
+        <v>-1026</v>
       </c>
       <c r="C6" s="2">
-        <f>($B$2/2)+([2]شمال!K59/2)</f>
-        <v>3526</v>
+        <v>1026</v>
       </c>
       <c r="E6" s="2">
         <f>[2]شمال!Z59</f>
         <v>4300</v>
       </c>
       <c r="F6" s="2">
-        <f>($B$2/2)-([2]شمال!AH59/2)</f>
-        <v>1750</v>
+        <v>-750</v>
       </c>
       <c r="G6" s="2">
-        <f>$B$2/2+[2]شمال!AH59/2</f>
-        <v>3250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,24 +2037,20 @@
         <v>4400</v>
       </c>
       <c r="B7" s="2">
-        <f>($B$2/2)-([2]شمال!K60/2)</f>
-        <v>1392</v>
+        <v>-1108</v>
       </c>
       <c r="C7" s="2">
-        <f>($B$2/2)+([2]شمال!K60/2)</f>
-        <v>3608</v>
+        <v>1108</v>
       </c>
       <c r="E7" s="2">
         <f>[2]شمال!Z60</f>
         <v>4200</v>
       </c>
       <c r="F7" s="2">
-        <f>($B$2/2)-([2]شمال!AH60/2)</f>
-        <v>1600</v>
+        <v>-900</v>
       </c>
       <c r="G7" s="2">
-        <f>$B$2/2+[2]شمال!AH60/2</f>
-        <v>3400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2688,24 +2059,20 @@
         <v>4300</v>
       </c>
       <c r="B8" s="2">
-        <f>($B$2/2)-([2]شمال!K61/2)</f>
-        <v>1310</v>
+        <v>-1190</v>
       </c>
       <c r="C8" s="2">
-        <f>($B$2/2)+([2]شمال!K61/2)</f>
-        <v>3690</v>
+        <v>1190</v>
       </c>
       <c r="E8" s="2">
         <f>[2]شمال!Z61</f>
         <v>4100</v>
       </c>
       <c r="F8" s="2">
-        <f>($B$2/2)-([2]شمال!AH61/2)</f>
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="G8" s="2">
-        <f>$B$2/2+[2]شمال!AH61/2</f>
-        <v>3500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2714,24 +2081,20 @@
         <v>4200</v>
       </c>
       <c r="B9" s="2">
-        <f>($B$2/2)-([2]شمال!K62/2)</f>
-        <v>1228</v>
+        <v>-1272</v>
       </c>
       <c r="C9" s="2">
-        <f>($B$2/2)+([2]شمال!K62/2)</f>
-        <v>3772</v>
+        <v>1272</v>
       </c>
       <c r="E9" s="2">
         <f>[2]شمال!Z62</f>
         <v>4000</v>
       </c>
       <c r="F9" s="2">
-        <f>($B$2/2)-([2]شمال!AH62/2)</f>
-        <v>1400</v>
+        <v>-1100</v>
       </c>
       <c r="G9" s="2">
-        <f>$B$2/2+[2]شمال!AH62/2</f>
-        <v>3600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2740,24 +2103,20 @@
         <v>4100</v>
       </c>
       <c r="B10" s="2">
-        <f>($B$2/2)-([2]شمال!K63/2)</f>
-        <v>1146</v>
+        <v>-1354</v>
       </c>
       <c r="C10" s="2">
-        <f>($B$2/2)+([2]شمال!K63/2)</f>
-        <v>3854</v>
+        <v>1354</v>
       </c>
       <c r="E10" s="2">
         <f>[2]شمال!Z63</f>
         <v>3900</v>
       </c>
       <c r="F10" s="2">
-        <f>($B$2/2)-([2]شمال!AH63/2)</f>
-        <v>1300</v>
+        <v>-1200</v>
       </c>
       <c r="G10" s="2">
-        <f>$B$2/2+[2]شمال!AH63/2</f>
-        <v>3700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2766,24 +2125,20 @@
         <v>4000</v>
       </c>
       <c r="B11" s="2">
-        <f>($B$2/2)-([2]شمال!K64/2)</f>
-        <v>1064</v>
+        <v>-1436</v>
       </c>
       <c r="C11" s="2">
-        <f>($B$2/2)+([2]شمال!K64/2)</f>
-        <v>3936</v>
+        <v>1436</v>
       </c>
       <c r="E11" s="2">
         <f>[2]شمال!Z64</f>
         <v>3800</v>
       </c>
       <c r="F11" s="2">
-        <f>($B$2/2)-([2]شمال!AH64/2)</f>
-        <v>1200</v>
+        <v>-1300</v>
       </c>
       <c r="G11" s="2">
-        <f>$B$2/2+[2]شمال!AH64/2</f>
-        <v>3800</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2792,24 +2147,20 @@
         <v>3900</v>
       </c>
       <c r="B12" s="2">
-        <f>($B$2/2)-([2]شمال!K65/2)</f>
-        <v>982</v>
+        <v>-1518</v>
       </c>
       <c r="C12" s="2">
-        <f>($B$2/2)+([2]شمال!K65/2)</f>
-        <v>4018</v>
+        <v>1518</v>
       </c>
       <c r="E12" s="2">
         <f>[2]شمال!Z65</f>
         <v>3700</v>
       </c>
       <c r="F12" s="2">
-        <f>($B$2/2)-([2]شمال!AH65/2)</f>
-        <v>1145</v>
+        <v>-1355</v>
       </c>
       <c r="G12" s="2">
-        <f>$B$2/2+[2]شمال!AH65/2</f>
-        <v>3855</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2818,24 +2169,20 @@
         <v>3800</v>
       </c>
       <c r="B13" s="2">
-        <f>($B$2/2)-([2]شمال!K66/2)</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C13" s="2">
-        <f>($B$2/2)+([2]شمال!K66/2)</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
       <c r="E13" s="2">
         <f>[2]شمال!Z66</f>
         <v>3600</v>
       </c>
       <c r="F13" s="2">
-        <f>($B$2/2)-([2]شمال!AH66/2)</f>
-        <v>1090</v>
+        <v>-1410</v>
       </c>
       <c r="G13" s="2">
-        <f>$B$2/2+[2]شمال!AH66/2</f>
-        <v>3910</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2844,24 +2191,20 @@
         <v>3700</v>
       </c>
       <c r="B14" s="2">
-        <f>($B$2/2)-([2]شمال!K67/2)</f>
-        <v>847</v>
+        <v>-1653</v>
       </c>
       <c r="C14" s="2">
-        <f>($B$2/2)+([2]شمال!K67/2)</f>
-        <v>4153</v>
+        <v>1653</v>
       </c>
       <c r="E14" s="2">
         <f>[2]شمال!Z67</f>
         <v>3500</v>
       </c>
       <c r="F14" s="2">
-        <f>($B$2/2)-([2]شمال!AH67/2)</f>
-        <v>1035</v>
+        <v>-1465</v>
       </c>
       <c r="G14" s="2">
-        <f>$B$2/2+[2]شمال!AH67/2</f>
-        <v>3965</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,24 +2213,20 @@
         <v>3600</v>
       </c>
       <c r="B15" s="2">
-        <f>($B$2/2)-([2]شمال!K68/2)</f>
-        <v>794</v>
+        <v>-1706</v>
       </c>
       <c r="C15" s="2">
-        <f>($B$2/2)+([2]شمال!K68/2)</f>
-        <v>4206</v>
+        <v>1706</v>
       </c>
       <c r="E15" s="2">
         <f>[2]شمال!Z68</f>
         <v>3400</v>
       </c>
       <c r="F15" s="2">
-        <f>($B$2/2)-([2]شمال!AH68/2)</f>
-        <v>980</v>
+        <v>-1520</v>
       </c>
       <c r="G15" s="2">
-        <f>$B$2/2+[2]شمال!AH68/2</f>
-        <v>4020</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2896,24 +2235,20 @@
         <v>3500</v>
       </c>
       <c r="B16" s="2">
-        <f>($B$2/2)-([2]شمال!K69/2)</f>
-        <v>741</v>
+        <v>-1759</v>
       </c>
       <c r="C16" s="2">
-        <f>($B$2/2)+([2]شمال!K69/2)</f>
-        <v>4259</v>
+        <v>1759</v>
       </c>
       <c r="E16" s="2">
         <f>[2]شمال!Z69</f>
         <v>3300</v>
       </c>
       <c r="F16" s="2">
-        <f>($B$2/2)-([2]شمال!AH69/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G16" s="2">
-        <f>$B$2/2+[2]شمال!AH69/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,24 +2257,20 @@
         <v>3400</v>
       </c>
       <c r="B17" s="2">
-        <f>($B$2/2)-([2]شمال!K70/2)</f>
-        <v>688</v>
+        <v>-1812</v>
       </c>
       <c r="C17" s="2">
-        <f>($B$2/2)+([2]شمال!K70/2)</f>
-        <v>4312</v>
+        <v>1812</v>
       </c>
       <c r="E17" s="2">
         <f>[2]شمال!Z70</f>
         <v>450</v>
       </c>
       <c r="F17" s="2">
-        <f>($B$2/2)-([2]شمال!AH70/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G17" s="2">
-        <f>$B$2/2+[2]شمال!AH70/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2948,24 +2279,20 @@
         <v>3300</v>
       </c>
       <c r="B18" s="2">
-        <f>($B$2/2)-([2]شمال!K71/2)</f>
-        <v>635</v>
+        <v>-1865</v>
       </c>
       <c r="C18" s="2">
-        <f>($B$2/2)+([2]شمال!K71/2)</f>
-        <v>4365</v>
+        <v>1865</v>
       </c>
       <c r="E18" s="2">
         <f>[2]شمال!Z71</f>
         <v>450</v>
       </c>
       <c r="F18" s="2">
-        <f>($B$2/2)-([2]شمال!AH71/2)</f>
-        <v>1005</v>
+        <v>-1495</v>
       </c>
       <c r="G18" s="2">
-        <f>$B$2/2+[2]شمال!AH71/2</f>
-        <v>3995</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,24 +2301,20 @@
         <v>3200</v>
       </c>
       <c r="B19" s="2">
-        <f>($B$2/2)-([2]شمال!K72/2)</f>
-        <v>582</v>
+        <v>-1918</v>
       </c>
       <c r="C19" s="2">
-        <f>($B$2/2)+([2]شمال!K72/2)</f>
-        <v>4418</v>
+        <v>1918</v>
       </c>
       <c r="E19" s="2">
         <f>[2]شمال!Z72</f>
         <v>100</v>
       </c>
       <c r="F19" s="2">
-        <f>($B$2/2)-([2]شمال!AH72/2)</f>
-        <v>1280</v>
+        <v>-1220</v>
       </c>
       <c r="G19" s="2">
-        <f>$B$2/2+[2]شمال!AH72/2</f>
-        <v>3720</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3000,12 +2323,10 @@
         <v>3100</v>
       </c>
       <c r="B20" s="2">
-        <f>($B$2/2)-([2]شمال!K73/2)</f>
-        <v>529</v>
+        <v>-1971</v>
       </c>
       <c r="C20" s="2">
-        <f>($B$2/2)+([2]شمال!K73/2)</f>
-        <v>4471</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,12 +2335,10 @@
         <v>3050</v>
       </c>
       <c r="B21" s="2">
-        <f>($B$2/2)-([2]شمال!K74/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C21" s="2">
-        <f>($B$2/2)+([2]شمال!K74/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3028,12 +2347,10 @@
         <v>1120</v>
       </c>
       <c r="B22" s="2">
-        <f>($B$2/2)-([2]شمال!K75/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C22" s="2">
-        <f>($B$2/2)+([2]شمال!K75/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3042,12 +2359,10 @@
         <v>1120</v>
       </c>
       <c r="B23" s="2">
-        <f>B22</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C23" s="2">
-        <f>C22-300</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3056,12 +2371,10 @@
         <v>760</v>
       </c>
       <c r="B24" s="2">
-        <f>B23</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C24" s="2">
-        <f>C23</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,12 +2383,10 @@
         <v>760</v>
       </c>
       <c r="B25" s="2">
-        <f>B24+300</f>
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="C25" s="2">
-        <f>C24</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3084,12 +2395,10 @@
         <v>380</v>
       </c>
       <c r="B26" s="2">
-        <f>B25</f>
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="C26" s="2">
-        <f>C25</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3098,12 +2407,10 @@
         <v>380</v>
       </c>
       <c r="B27" s="2">
-        <f>B26+100</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C27" s="2">
-        <f>C26-100</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3112,12 +2419,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="2">
-        <f>($B$2/2)-([2]شمال!K81/2)</f>
-        <v>1225</v>
+        <v>-1275</v>
       </c>
       <c r="C28" s="2">
-        <f>($B$2/2)+([2]شمال!K81/2)</f>
-        <v>3775</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +2440,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,24 +2511,20 @@
         <v>4900</v>
       </c>
       <c r="B5" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K59/2)</f>
-        <v>1720</v>
+        <v>-780</v>
       </c>
       <c r="C5" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K59/2)</f>
-        <v>3280</v>
+        <v>780</v>
       </c>
       <c r="E5" s="2">
         <f>[3]آذربايجان!Z59</f>
         <v>4500</v>
       </c>
       <c r="F5" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH59/2)</f>
-        <v>1800</v>
+        <v>-700</v>
       </c>
       <c r="G5" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH59/2</f>
-        <v>3200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3232,24 +2533,20 @@
         <v>4800</v>
       </c>
       <c r="B6" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K60/2)</f>
-        <v>1638</v>
+        <v>-862</v>
       </c>
       <c r="C6" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K60/2)</f>
-        <v>3362</v>
+        <v>862</v>
       </c>
       <c r="E6" s="2">
         <f>[3]آذربايجان!Z60</f>
         <v>4400</v>
       </c>
       <c r="F6" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH60/2)</f>
-        <v>1700</v>
+        <v>-800</v>
       </c>
       <c r="G6" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH60/2</f>
-        <v>3300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,24 +2555,20 @@
         <v>4700</v>
       </c>
       <c r="B7" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K61/2)</f>
-        <v>1556</v>
+        <v>-944</v>
       </c>
       <c r="C7" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K61/2)</f>
-        <v>3444</v>
+        <v>944</v>
       </c>
       <c r="E7" s="2">
         <f>[3]آذربايجان!Z61</f>
         <v>4300</v>
       </c>
       <c r="F7" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH61/2)</f>
-        <v>1600</v>
+        <v>-900</v>
       </c>
       <c r="G7" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH61/2</f>
-        <v>3400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,24 +2577,20 @@
         <v>4600</v>
       </c>
       <c r="B8" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K62/2)</f>
-        <v>1474</v>
+        <v>-1026</v>
       </c>
       <c r="C8" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K62/2)</f>
-        <v>3526</v>
+        <v>1026</v>
       </c>
       <c r="E8" s="2">
         <f>[3]آذربايجان!Z62</f>
         <v>4200</v>
       </c>
       <c r="F8" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH62/2)</f>
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="G8" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH62/2</f>
-        <v>3500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,24 +2599,20 @@
         <v>4500</v>
       </c>
       <c r="B9" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K63/2)</f>
-        <v>1392</v>
+        <v>-1108</v>
       </c>
       <c r="C9" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K63/2)</f>
-        <v>3608</v>
+        <v>1108</v>
       </c>
       <c r="E9" s="2">
         <f>[3]آذربايجان!Z63</f>
         <v>4100</v>
       </c>
       <c r="F9" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH63/2)</f>
-        <v>1400</v>
+        <v>-1100</v>
       </c>
       <c r="G9" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH63/2</f>
-        <v>3600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3336,24 +2621,20 @@
         <v>4400</v>
       </c>
       <c r="B10" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K64/2)</f>
-        <v>1310</v>
+        <v>-1190</v>
       </c>
       <c r="C10" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K64/2)</f>
-        <v>3690</v>
+        <v>1190</v>
       </c>
       <c r="E10" s="2">
         <f>[3]آذربايجان!Z64</f>
         <v>4000</v>
       </c>
       <c r="F10" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH64/2)</f>
-        <v>1300</v>
+        <v>-1200</v>
       </c>
       <c r="G10" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH64/2</f>
-        <v>3700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3362,24 +2643,20 @@
         <v>4300</v>
       </c>
       <c r="B11" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K65/2)</f>
-        <v>1228</v>
+        <v>-1272</v>
       </c>
       <c r="C11" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K65/2)</f>
-        <v>3772</v>
+        <v>1272</v>
       </c>
       <c r="E11" s="2">
         <f>[3]آذربايجان!Z65</f>
         <v>3900</v>
       </c>
       <c r="F11" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH65/2)</f>
-        <v>1200</v>
+        <v>-1300</v>
       </c>
       <c r="G11" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH65/2</f>
-        <v>3800</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,24 +2665,20 @@
         <v>4200</v>
       </c>
       <c r="B12" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K66/2)</f>
-        <v>1146</v>
+        <v>-1354</v>
       </c>
       <c r="C12" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K66/2)</f>
-        <v>3854</v>
+        <v>1354</v>
       </c>
       <c r="E12" s="2">
         <f>[3]آذربايجان!Z66</f>
         <v>3800</v>
       </c>
       <c r="F12" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH66/2)</f>
-        <v>1145</v>
+        <v>-1355</v>
       </c>
       <c r="G12" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH66/2</f>
-        <v>3855</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3414,24 +2687,20 @@
         <v>4100</v>
       </c>
       <c r="B13" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K67/2)</f>
-        <v>1064</v>
+        <v>-1436</v>
       </c>
       <c r="C13" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K67/2)</f>
-        <v>3936</v>
+        <v>1436</v>
       </c>
       <c r="E13" s="2">
         <f>[3]آذربايجان!Z67</f>
         <v>3700</v>
       </c>
       <c r="F13" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH67/2)</f>
-        <v>1090</v>
+        <v>-1410</v>
       </c>
       <c r="G13" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH67/2</f>
-        <v>3910</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3440,24 +2709,20 @@
         <v>4000</v>
       </c>
       <c r="B14" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K68/2)</f>
-        <v>982</v>
+        <v>-1518</v>
       </c>
       <c r="C14" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K68/2)</f>
-        <v>4018</v>
+        <v>1518</v>
       </c>
       <c r="E14" s="2">
         <f>[3]آذربايجان!Z68</f>
         <v>3600</v>
       </c>
       <c r="F14" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH68/2)</f>
-        <v>1035</v>
+        <v>-1465</v>
       </c>
       <c r="G14" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH68/2</f>
-        <v>3965</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3466,24 +2731,20 @@
         <v>3900</v>
       </c>
       <c r="B15" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K69/2)</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C15" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K69/2)</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="2">
         <f>[3]آذربايجان!Z69</f>
         <v>3500</v>
       </c>
       <c r="F15" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH69/2)</f>
-        <v>980</v>
+        <v>-1520</v>
       </c>
       <c r="G15" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH69/2</f>
-        <v>4020</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3492,24 +2753,20 @@
         <v>3800</v>
       </c>
       <c r="B16" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K70/2)</f>
-        <v>847</v>
+        <v>-1653</v>
       </c>
       <c r="C16" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K70/2)</f>
-        <v>4153</v>
+        <v>1653</v>
       </c>
       <c r="E16" s="2">
         <f>[3]آذربايجان!Z70</f>
         <v>3400</v>
       </c>
       <c r="F16" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH70/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G16" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH70/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3518,24 +2775,20 @@
         <v>3700</v>
       </c>
       <c r="B17" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K71/2)</f>
-        <v>794</v>
+        <v>-1706</v>
       </c>
       <c r="C17" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K71/2)</f>
-        <v>4206</v>
+        <v>1706</v>
       </c>
       <c r="E17" s="2">
         <f>[3]آذربايجان!Z71</f>
         <v>450</v>
       </c>
       <c r="F17" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH71/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G17" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH71/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3544,24 +2797,20 @@
         <v>3600</v>
       </c>
       <c r="B18" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K72/2)</f>
-        <v>741</v>
+        <v>-1759</v>
       </c>
       <c r="C18" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K72/2)</f>
-        <v>4259</v>
+        <v>1759</v>
       </c>
       <c r="E18" s="2">
         <f>[3]آذربايجان!Z72</f>
         <v>450</v>
       </c>
       <c r="F18" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH72/2)</f>
-        <v>1005</v>
+        <v>-1495</v>
       </c>
       <c r="G18" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH72/2</f>
-        <v>3995</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3570,24 +2819,20 @@
         <v>3500</v>
       </c>
       <c r="B19" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K73/2)</f>
-        <v>688</v>
+        <v>-1812</v>
       </c>
       <c r="C19" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K73/2)</f>
-        <v>4312</v>
+        <v>1812</v>
       </c>
       <c r="E19" s="2">
         <f>[3]آذربايجان!Z73</f>
         <v>100</v>
       </c>
       <c r="F19" s="2">
-        <f>($B$2/2)-([3]آذربايجان!AH73/2)</f>
-        <v>1280</v>
+        <v>-1220</v>
       </c>
       <c r="G19" s="2">
-        <f>$B$2/2+[3]آذربايجان!AH73/2</f>
-        <v>3720</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3596,12 +2841,10 @@
         <v>3400</v>
       </c>
       <c r="B20" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K74/2)</f>
-        <v>635</v>
+        <v>-1865</v>
       </c>
       <c r="C20" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K74/2)</f>
-        <v>4365</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3610,12 +2853,10 @@
         <v>3300</v>
       </c>
       <c r="B21" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K75/2)</f>
-        <v>582</v>
+        <v>-1918</v>
       </c>
       <c r="C21" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K75/2)</f>
-        <v>4418</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3624,12 +2865,10 @@
         <v>3200</v>
       </c>
       <c r="B22" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K76/2)</f>
-        <v>529</v>
+        <v>-1971</v>
       </c>
       <c r="C22" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K76/2)</f>
-        <v>4471</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3638,12 +2877,10 @@
         <v>3150</v>
       </c>
       <c r="B23" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K77/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C23" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K77/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3652,12 +2889,10 @@
         <v>1200</v>
       </c>
       <c r="B24" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K78/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C24" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K78/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3666,12 +2901,10 @@
         <v>1200</v>
       </c>
       <c r="B25" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K79/2)</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C25" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K79/2)</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3679,12 +2912,10 @@
         <v>380</v>
       </c>
       <c r="B26" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K80/2)</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C26" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K80/2)</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3693,12 +2924,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="2">
-        <f>($B$2/2)-([3]آذربايجان!K81/2)</f>
-        <v>1225</v>
+        <v>-1275</v>
       </c>
       <c r="C27" s="2">
-        <f>($B$2/2)+([3]آذربايجان!K81/2)</f>
-        <v>3775</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +2945,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,24 +3017,20 @@
         <v>5200</v>
       </c>
       <c r="B5" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K62/2)</f>
-        <v>1720</v>
+        <v>-780</v>
       </c>
       <c r="C5" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K62/2)</f>
-        <v>3280</v>
+        <v>780</v>
       </c>
       <c r="E5" s="2">
         <f>'[4]سرخس - تهران'!Z62</f>
         <v>4800</v>
       </c>
       <c r="F5" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH62/2)</f>
-        <v>1800</v>
+        <v>-700</v>
       </c>
       <c r="G5" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH62/2</f>
-        <v>3200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3814,24 +3039,20 @@
         <v>5100</v>
       </c>
       <c r="B6" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K63/2)</f>
-        <v>1638</v>
+        <v>-862</v>
       </c>
       <c r="C6" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K63/2)</f>
-        <v>3362</v>
+        <v>862</v>
       </c>
       <c r="E6" s="2">
         <f>'[4]سرخس - تهران'!Z63</f>
         <v>4700</v>
       </c>
       <c r="F6" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH63/2)</f>
-        <v>1700</v>
+        <v>-800</v>
       </c>
       <c r="G6" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH63/2</f>
-        <v>3300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3840,24 +3061,20 @@
         <v>5000</v>
       </c>
       <c r="B7" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K64/2)</f>
-        <v>1556</v>
+        <v>-944</v>
       </c>
       <c r="C7" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K64/2)</f>
-        <v>3444</v>
+        <v>944</v>
       </c>
       <c r="E7" s="2">
         <f>'[4]سرخس - تهران'!Z64</f>
         <v>4600</v>
       </c>
       <c r="F7" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH64/2)</f>
-        <v>1600</v>
+        <v>-900</v>
       </c>
       <c r="G7" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH64/2</f>
-        <v>3400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3866,24 +3083,20 @@
         <v>4900</v>
       </c>
       <c r="B8" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K65/2)</f>
-        <v>1474</v>
+        <v>-1026</v>
       </c>
       <c r="C8" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K65/2)</f>
-        <v>3526</v>
+        <v>1026</v>
       </c>
       <c r="E8" s="2">
         <f>'[4]سرخس - تهران'!Z65</f>
         <v>4500</v>
       </c>
       <c r="F8" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH65/2)</f>
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="G8" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH65/2</f>
-        <v>3500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3892,24 +3105,20 @@
         <v>4800</v>
       </c>
       <c r="B9" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K66/2)</f>
-        <v>1392</v>
+        <v>-1108</v>
       </c>
       <c r="C9" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K66/2)</f>
-        <v>3608</v>
+        <v>1108</v>
       </c>
       <c r="E9" s="2">
         <f>'[4]سرخس - تهران'!Z66</f>
         <v>4400</v>
       </c>
       <c r="F9" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH66/2)</f>
-        <v>1400</v>
+        <v>-1100</v>
       </c>
       <c r="G9" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH66/2</f>
-        <v>3600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3918,24 +3127,20 @@
         <v>4700</v>
       </c>
       <c r="B10" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K67/2)</f>
-        <v>1310</v>
+        <v>-1190</v>
       </c>
       <c r="C10" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K67/2)</f>
-        <v>3690</v>
+        <v>1190</v>
       </c>
       <c r="E10" s="2">
         <f>'[4]سرخس - تهران'!Z67</f>
         <v>4300</v>
       </c>
       <c r="F10" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH67/2)</f>
-        <v>1300</v>
+        <v>-1200</v>
       </c>
       <c r="G10" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH67/2</f>
-        <v>3700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3944,24 +3149,20 @@
         <v>4600</v>
       </c>
       <c r="B11" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K68/2)</f>
-        <v>1228</v>
+        <v>-1272</v>
       </c>
       <c r="C11" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K68/2)</f>
-        <v>3772</v>
+        <v>1272</v>
       </c>
       <c r="E11" s="2">
         <f>'[4]سرخس - تهران'!Z68</f>
         <v>4200</v>
       </c>
       <c r="F11" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH68/2)</f>
-        <v>1200</v>
+        <v>-1300</v>
       </c>
       <c r="G11" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH68/2</f>
-        <v>3800</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3970,24 +3171,20 @@
         <v>4500</v>
       </c>
       <c r="B12" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K69/2)</f>
-        <v>1146</v>
+        <v>-1354</v>
       </c>
       <c r="C12" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K69/2)</f>
-        <v>3854</v>
+        <v>1354</v>
       </c>
       <c r="E12" s="2">
         <f>'[4]سرخس - تهران'!Z69</f>
         <v>4100</v>
       </c>
       <c r="F12" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH69/2)</f>
-        <v>1145</v>
+        <v>-1355</v>
       </c>
       <c r="G12" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH69/2</f>
-        <v>3855</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3996,24 +3193,20 @@
         <v>4400</v>
       </c>
       <c r="B13" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K70/2)</f>
-        <v>1064</v>
+        <v>-1436</v>
       </c>
       <c r="C13" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K70/2)</f>
-        <v>3936</v>
+        <v>1436</v>
       </c>
       <c r="E13" s="2">
         <f>'[4]سرخس - تهران'!Z70</f>
         <v>4000</v>
       </c>
       <c r="F13" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH70/2)</f>
-        <v>1090</v>
+        <v>-1410</v>
       </c>
       <c r="G13" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH70/2</f>
-        <v>3910</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4022,24 +3215,20 @@
         <v>4300</v>
       </c>
       <c r="B14" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K71/2)</f>
-        <v>982</v>
+        <v>-1518</v>
       </c>
       <c r="C14" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K71/2)</f>
-        <v>4018</v>
+        <v>1518</v>
       </c>
       <c r="E14" s="2">
         <f>'[4]سرخس - تهران'!Z71</f>
         <v>3900</v>
       </c>
       <c r="F14" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH71/2)</f>
-        <v>1035</v>
+        <v>-1465</v>
       </c>
       <c r="G14" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH71/2</f>
-        <v>3965</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4048,24 +3237,20 @@
         <v>4200</v>
       </c>
       <c r="B15" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K72/2)</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C15" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K72/2)</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="2">
         <f>'[4]سرخس - تهران'!Z72</f>
         <v>3800</v>
       </c>
       <c r="F15" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH72/2)</f>
-        <v>980</v>
+        <v>-1520</v>
       </c>
       <c r="G15" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH72/2</f>
-        <v>4020</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4074,24 +3259,20 @@
         <v>4100</v>
       </c>
       <c r="B16" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K73/2)</f>
-        <v>847</v>
+        <v>-1653</v>
       </c>
       <c r="C16" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K73/2)</f>
-        <v>4153</v>
+        <v>1653</v>
       </c>
       <c r="E16" s="2">
         <f>'[4]سرخس - تهران'!Z73</f>
         <v>3700</v>
       </c>
       <c r="F16" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH73/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G16" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH73/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4100,24 +3281,20 @@
         <v>4000</v>
       </c>
       <c r="B17" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K74/2)</f>
-        <v>794</v>
+        <v>-1706</v>
       </c>
       <c r="C17" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K74/2)</f>
-        <v>4206</v>
+        <v>1706</v>
       </c>
       <c r="E17" s="2">
         <f>'[4]سرخس - تهران'!Z74</f>
         <v>450</v>
       </c>
       <c r="F17" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH74/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G17" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH74/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4126,24 +3303,20 @@
         <v>3900</v>
       </c>
       <c r="B18" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K75/2)</f>
-        <v>741</v>
+        <v>-1759</v>
       </c>
       <c r="C18" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K75/2)</f>
-        <v>4259</v>
+        <v>1759</v>
       </c>
       <c r="E18" s="2">
         <f>'[4]سرخس - تهران'!Z75</f>
         <v>450</v>
       </c>
       <c r="F18" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH75/2)</f>
-        <v>1005</v>
+        <v>-1495</v>
       </c>
       <c r="G18" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH75/2</f>
-        <v>3995</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4152,24 +3325,20 @@
         <v>3800</v>
       </c>
       <c r="B19" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K76/2)</f>
-        <v>688</v>
+        <v>-1812</v>
       </c>
       <c r="C19" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K76/2)</f>
-        <v>4312</v>
+        <v>1812</v>
       </c>
       <c r="E19" s="2">
         <f>'[4]سرخس - تهران'!Z76</f>
         <v>100</v>
       </c>
       <c r="F19" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!AH76/2)</f>
-        <v>1280</v>
+        <v>-1220</v>
       </c>
       <c r="G19" s="2">
-        <f>$B$2/2+'[4]سرخس - تهران'!AH76/2</f>
-        <v>3720</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4178,12 +3347,10 @@
         <v>3700</v>
       </c>
       <c r="B20" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K77/2)</f>
-        <v>635</v>
+        <v>-1865</v>
       </c>
       <c r="C20" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K77/2)</f>
-        <v>4365</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4192,12 +3359,10 @@
         <v>3600</v>
       </c>
       <c r="B21" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K78/2)</f>
-        <v>582</v>
+        <v>-1918</v>
       </c>
       <c r="C21" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K78/2)</f>
-        <v>4418</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4206,12 +3371,10 @@
         <v>3500</v>
       </c>
       <c r="B22" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K79/2)</f>
-        <v>529</v>
+        <v>-1971</v>
       </c>
       <c r="C22" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K79/2)</f>
-        <v>4471</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4220,12 +3383,10 @@
         <v>3450</v>
       </c>
       <c r="B23" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K80/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C23" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K80/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,12 +3395,10 @@
         <v>1120</v>
       </c>
       <c r="B24" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K81/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C24" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K81/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4248,12 +3407,10 @@
         <v>1120</v>
       </c>
       <c r="B25" s="2">
-        <f>B24</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C25" s="2">
-        <f>C24-300</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4262,12 +3419,10 @@
         <v>760</v>
       </c>
       <c r="B26" s="2">
-        <f>B25</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C26" s="2">
-        <f>C25</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4276,12 +3431,10 @@
         <v>760</v>
       </c>
       <c r="B27" s="2">
-        <f>500+300</f>
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="C27" s="2">
-        <f>C26</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4290,12 +3443,10 @@
         <v>380</v>
       </c>
       <c r="B28" s="2">
-        <f>B27</f>
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="C28" s="2">
-        <f>C27</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4304,12 +3455,10 @@
         <v>380</v>
       </c>
       <c r="B29" s="2">
-        <f>B28+100</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C29" s="2">
-        <f>C28-100</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4318,12 +3467,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="2">
-        <f>($B$2/2)-('[4]سرخس - تهران'!K87/2)</f>
-        <v>1225</v>
+        <v>-1275</v>
       </c>
       <c r="C30" s="2">
-        <f>($B$2/2)+('[4]سرخس - تهران'!K87/2)</f>
-        <v>3775</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
@@ -4341,7 +3488,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,24 +3560,20 @@
         <v>5400</v>
       </c>
       <c r="B5" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K64/2)</f>
-        <v>1720</v>
+        <v>-780</v>
       </c>
       <c r="C5" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K64/2)</f>
-        <v>3280</v>
+        <v>780</v>
       </c>
       <c r="E5" s="3">
         <f>'[5]بندر- شوراب'!Z64</f>
         <v>5000</v>
       </c>
       <c r="F5" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH64/2)</f>
-        <v>1800</v>
+        <v>-700</v>
       </c>
       <c r="G5" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH64/2</f>
-        <v>3200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4439,24 +3582,20 @@
         <v>5300</v>
       </c>
       <c r="B6" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K65/2)</f>
-        <v>1638</v>
+        <v>-862</v>
       </c>
       <c r="C6" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K65/2)</f>
-        <v>3362</v>
+        <v>862</v>
       </c>
       <c r="E6" s="3">
         <f>'[5]بندر- شوراب'!Z65</f>
         <v>4900</v>
       </c>
       <c r="F6" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH65/2)</f>
-        <v>1700</v>
+        <v>-800</v>
       </c>
       <c r="G6" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH65/2</f>
-        <v>3300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4465,24 +3604,20 @@
         <v>5200</v>
       </c>
       <c r="B7" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K66/2)</f>
-        <v>1556</v>
+        <v>-944</v>
       </c>
       <c r="C7" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K66/2)</f>
-        <v>3444</v>
+        <v>944</v>
       </c>
       <c r="E7" s="3">
         <f>'[5]بندر- شوراب'!Z66</f>
         <v>4800</v>
       </c>
       <c r="F7" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH66/2)</f>
-        <v>1600</v>
+        <v>-900</v>
       </c>
       <c r="G7" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH66/2</f>
-        <v>3400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4491,24 +3626,20 @@
         <v>5100</v>
       </c>
       <c r="B8" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K67/2)</f>
-        <v>1474</v>
+        <v>-1026</v>
       </c>
       <c r="C8" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K67/2)</f>
-        <v>3526</v>
+        <v>1026</v>
       </c>
       <c r="E8" s="3">
         <f>'[5]بندر- شوراب'!Z67</f>
         <v>4700</v>
       </c>
       <c r="F8" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH67/2)</f>
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="G8" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH67/2</f>
-        <v>3500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4517,24 +3648,20 @@
         <v>5000</v>
       </c>
       <c r="B9" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K68/2)</f>
-        <v>1392</v>
+        <v>-1108</v>
       </c>
       <c r="C9" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K68/2)</f>
-        <v>3608</v>
+        <v>1108</v>
       </c>
       <c r="E9" s="3">
         <f>'[5]بندر- شوراب'!Z68</f>
         <v>4600</v>
       </c>
       <c r="F9" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH68/2)</f>
-        <v>1400</v>
+        <v>-1100</v>
       </c>
       <c r="G9" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH68/2</f>
-        <v>3600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,24 +3670,20 @@
         <v>4900</v>
       </c>
       <c r="B10" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K69/2)</f>
-        <v>1310</v>
+        <v>-1190</v>
       </c>
       <c r="C10" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K69/2)</f>
-        <v>3690</v>
+        <v>1190</v>
       </c>
       <c r="E10" s="3">
         <f>'[5]بندر- شوراب'!Z69</f>
         <v>4500</v>
       </c>
       <c r="F10" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH69/2)</f>
-        <v>1300</v>
+        <v>-1200</v>
       </c>
       <c r="G10" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH69/2</f>
-        <v>3700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4569,24 +3692,20 @@
         <v>4800</v>
       </c>
       <c r="B11" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K70/2)</f>
-        <v>1228</v>
+        <v>-1272</v>
       </c>
       <c r="C11" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K70/2)</f>
-        <v>3772</v>
+        <v>1272</v>
       </c>
       <c r="E11" s="3">
         <f>'[5]بندر- شوراب'!Z70</f>
         <v>4400</v>
       </c>
       <c r="F11" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH70/2)</f>
-        <v>1200</v>
+        <v>-1300</v>
       </c>
       <c r="G11" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH70/2</f>
-        <v>3800</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4595,24 +3714,20 @@
         <v>4700</v>
       </c>
       <c r="B12" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K71/2)</f>
-        <v>1146</v>
+        <v>-1354</v>
       </c>
       <c r="C12" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K71/2)</f>
-        <v>3854</v>
+        <v>1354</v>
       </c>
       <c r="E12" s="3">
         <f>'[5]بندر- شوراب'!Z71</f>
         <v>4300</v>
       </c>
       <c r="F12" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH71/2)</f>
-        <v>1145</v>
+        <v>-1355</v>
       </c>
       <c r="G12" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH71/2</f>
-        <v>3855</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4621,24 +3736,20 @@
         <v>4600</v>
       </c>
       <c r="B13" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K72/2)</f>
-        <v>1064</v>
+        <v>-1436</v>
       </c>
       <c r="C13" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K72/2)</f>
-        <v>3936</v>
+        <v>1436</v>
       </c>
       <c r="E13" s="3">
         <f>'[5]بندر- شوراب'!Z72</f>
         <v>4200</v>
       </c>
       <c r="F13" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH72/2)</f>
-        <v>1090</v>
+        <v>-1410</v>
       </c>
       <c r="G13" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH72/2</f>
-        <v>3910</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,24 +3758,20 @@
         <v>4500</v>
       </c>
       <c r="B14" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K73/2)</f>
-        <v>982</v>
+        <v>-1518</v>
       </c>
       <c r="C14" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K73/2)</f>
-        <v>4018</v>
+        <v>1518</v>
       </c>
       <c r="E14" s="3">
         <f>'[5]بندر- شوراب'!Z73</f>
         <v>4100</v>
       </c>
       <c r="F14" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH73/2)</f>
-        <v>1035</v>
+        <v>-1465</v>
       </c>
       <c r="G14" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH73/2</f>
-        <v>3965</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4673,24 +3780,20 @@
         <v>4400</v>
       </c>
       <c r="B15" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K74/2)</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C15" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K74/2)</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="3">
         <f>'[5]بندر- شوراب'!Z74</f>
         <v>4000</v>
       </c>
       <c r="F15" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH74/2)</f>
-        <v>980</v>
+        <v>-1520</v>
       </c>
       <c r="G15" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH74/2</f>
-        <v>4020</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4699,24 +3802,20 @@
         <v>4300</v>
       </c>
       <c r="B16" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K75/2)</f>
-        <v>847</v>
+        <v>-1653</v>
       </c>
       <c r="C16" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K75/2)</f>
-        <v>4153</v>
+        <v>1653</v>
       </c>
       <c r="E16" s="3">
         <f>'[5]بندر- شوراب'!Z75</f>
         <v>3900</v>
       </c>
       <c r="F16" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH75/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G16" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH75/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4725,24 +3824,20 @@
         <v>4200</v>
       </c>
       <c r="B17" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K76/2)</f>
-        <v>794</v>
+        <v>-1706</v>
       </c>
       <c r="C17" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K76/2)</f>
-        <v>4206</v>
+        <v>1706</v>
       </c>
       <c r="E17" s="3">
         <f>'[5]بندر- شوراب'!Z76</f>
         <v>450</v>
       </c>
       <c r="F17" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH76/2)</f>
-        <v>925</v>
+        <v>-1575</v>
       </c>
       <c r="G17" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH76/2</f>
-        <v>4075</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4751,24 +3846,20 @@
         <v>4100</v>
       </c>
       <c r="B18" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K77/2)</f>
-        <v>741</v>
+        <v>-1759</v>
       </c>
       <c r="C18" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K77/2)</f>
-        <v>4259</v>
+        <v>1759</v>
       </c>
       <c r="E18" s="3">
         <f>'[5]بندر- شوراب'!Z77</f>
         <v>450</v>
       </c>
       <c r="F18" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH77/2)</f>
-        <v>1005</v>
+        <v>-1495</v>
       </c>
       <c r="G18" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH77/2</f>
-        <v>3995</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4777,24 +3868,20 @@
         <v>4000</v>
       </c>
       <c r="B19" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K78/2)</f>
-        <v>688</v>
+        <v>-1812</v>
       </c>
       <c r="C19" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K78/2)</f>
-        <v>4312</v>
+        <v>1812</v>
       </c>
       <c r="E19" s="3">
         <f>'[5]بندر- شوراب'!Z78</f>
         <v>100</v>
       </c>
       <c r="F19" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!AH78/2)</f>
-        <v>1280</v>
+        <v>-1220</v>
       </c>
       <c r="G19" s="3">
-        <f>$B$2/2+'[5]بندر- شوراب'!AH78/2</f>
-        <v>3720</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4803,12 +3890,10 @@
         <v>3900</v>
       </c>
       <c r="B20" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K79/2)</f>
-        <v>635</v>
+        <v>-1865</v>
       </c>
       <c r="C20" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K79/2)</f>
-        <v>4365</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4817,12 +3902,10 @@
         <v>3800</v>
       </c>
       <c r="B21" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K80/2)</f>
-        <v>582</v>
+        <v>-1918</v>
       </c>
       <c r="C21" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K80/2)</f>
-        <v>4418</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4831,12 +3914,10 @@
         <v>3700</v>
       </c>
       <c r="B22" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K81/2)</f>
-        <v>529</v>
+        <v>-1971</v>
       </c>
       <c r="C22" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K81/2)</f>
-        <v>4471</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -4845,12 +3926,10 @@
         <v>3600</v>
       </c>
       <c r="B23" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K82/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C23" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K82/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4859,12 +3938,10 @@
         <v>1120</v>
       </c>
       <c r="B24" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K83/2)</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C24" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K83/2)</f>
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4873,12 +3950,10 @@
         <v>1120</v>
       </c>
       <c r="B25" s="3">
-        <f>B24</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C25" s="3">
-        <f>C24-300</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4887,12 +3962,10 @@
         <v>760</v>
       </c>
       <c r="B26" s="3">
-        <f>B25</f>
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="C26" s="3">
-        <f>C25</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4901,12 +3974,10 @@
         <v>760</v>
       </c>
       <c r="B27" s="3">
-        <f>B26+300</f>
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="C27" s="3">
-        <f>C26</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4915,12 +3986,10 @@
         <v>380</v>
       </c>
       <c r="B28" s="3">
-        <f>B27</f>
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="C28" s="3">
-        <f>C27</f>
-        <v>4200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4929,12 +3998,10 @@
         <v>380</v>
       </c>
       <c r="B29" s="3">
-        <f>B28+100</f>
-        <v>900</v>
+        <v>-1600</v>
       </c>
       <c r="C29" s="3">
-        <f>C28-100</f>
-        <v>4100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4943,12 +4010,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="3">
-        <f>($B$2/2)-('[5]بندر- شوراب'!K89/2)</f>
-        <v>1225</v>
+        <v>-1275</v>
       </c>
       <c r="C30" s="3">
-        <f>($B$2/2)+('[5]بندر- شوراب'!K89/2)</f>
-        <v>3775</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>
